--- a/data/hotels_by_city/Dallas/Dallas_shard_150.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_150.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="404">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>jntcm</t>
   </si>
   <si>
     <t>06/07/2018</t>
@@ -211,6 +214,9 @@
 The next morning we complained and the man at the front desk didn't seem phased or concerned. He simply offered to take one night off of our bill. Didn't ask any questions or apologize. When asked if they spray on a regular basis, the response was, "the rooms are renovated so this shouldn't be a problem." Anyone with common sense knows this is not logical. Since when do roaches care if a room is renovated? If they're not spraying, which clearly they aren't, then there will always be roaches; whether the room has a flat screen TV...Let's start with the front desk. Completely unprofessional. You're lucky if someone is even there during their listed hours. If you need anything after hours, you can forget it. They number they give you to call is worthless. You'll have to climb over the drunks passed out outside your room and on the stairs to get to the office and hope someone answers the call button or opens when you knock. If you didn't catch my drift, the place is extremely unsafe. Would not recommend being out alone or coming back late. I only left the room at night when I found cockroaches and wanted something to be done. In a not so shocking turn of events, the woman who finally answered the call button at the front desk was completely unsympathetic and sent a security guard up with a can of raid.The next morning we complained and the man at the front desk didn't seem phased or concerned. He simply offered to take one night off of our bill. Didn't ask any questions or apologize. When asked if they spray on a regular basis, the response was, "the rooms are renovated so this shouldn't be a problem." Anyone with common sense knows this is not logical. Since when do roaches care if a room is renovated? If they're not spraying, which clearly they aren't, then there will always be roaches; whether the room has a flat screen TV or not. The rooms themselves were disgusting. The comforters were stained and the bathroom smelled of urine. The kitchenette had dirt and crumbs in the cabinets. Clearly the rooms had not been cleaned. This was the worst hotel I'd ever stayed at and I would strongly recommend you stay away.More</t>
   </si>
   <si>
+    <t>ralphb317</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r498348620-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -232,6 +238,9 @@
     <t>Don;t know about the rooms, All I know is made a reservation (with confirmation number) directly with the corporate telephone number. Got to the hotel and apparently my reservation was cancelled the day before. There was nothing they could do for me. NOTHING to help me out, help find me another place or anything. TOld me it was my fault from brooking it through the web. I told them again, I called the corporate phone number for reservations not a web site. Then was told that unless you book directly and through this one person during the day, their is no guarantee you will get a room.I was the third person in the room and two others had the same experience. Yes I did get upset and probably said a swear word (which I apologized for) I did not call them a name but just a wwwwwwwwwword.   It was 6 pm and she then left with the "guests" sitting in the very small lobby. I had to spend the rest of the evening trying to find a place that had 30+ days open. Will never ever try them again. Called corporate got no response, sent letter, no response and sent e-mail, no responseMore</t>
   </si>
   <si>
+    <t>BpARJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r492325678-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -256,6 +265,9 @@
     <t>My wife, niece and I stayed at this hotel to visit family for a few days. The Manager who was working the front desk was very personable and very welcoming to us. there was a Congolese family also checking in and she was able to take care of all of our room needs! The housekeeper who was cleaning our room went out of her way to make sure our room was up to some serious clean standards (I really wish I could remember her name)...(NaSheima????) Anyway it was a miserable stay for me because I was sick with fever the entire time, but the room was comfortable, clean, quiet and we know that if we go back to this area again we will definitely look at this hotel again!More</t>
   </si>
   <si>
+    <t>Justin H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r421635374-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -277,6 +289,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Lisha L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r392701275-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -328,6 +343,9 @@
     <t>Everything is horrible.   Don't  stay  on  west  outside   rooms.....  so  hot  in  spring,,summer  and  fall.   direct  sun  on   outside   door   will  burn  your  hand.  Inside never  gets  below  85   degrees.....a/c not   adequate to   cool  room.Will  need  large  fan  not  to  sweat.  TV   never   works....always  cutting  out  even  when   no  storms  in  entire  state of  Texas.  Watch  out   for  bedbugs.   Microwave   barely works  Only  2   bath  towels/wk .  no  kitchen   towels.   ONLY   let  Lea   clean  room   others(males)   don't   clean  and  are  thiefs.   Desk  staff   not   adequately  trained   and  can be  extremely  rude  especially  weekend  afternoon   staff.    You   can  do  better  elsewhereMore</t>
   </si>
   <si>
+    <t>Jim W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r385511678-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -346,6 +364,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>rula190</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r368646873-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -385,6 +406,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Nunjisgirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r313758338-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -412,6 +436,9 @@
     <t>Immediately struck by how dirty the room was! Visible black bacteria ring under toilet bowl rim, floor needing swept/vacuumed, liquid splatters on cabinets.  Bed/pillows hard and uncomfortable.   Non-smoking room smelled like an ashtray!  Run!More</t>
   </si>
   <si>
+    <t>Jeff J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r313505829-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -436,6 +463,9 @@
     <t>Checked into my room and right away was stunned at how dirty it was. The walls were stained, there were crumbs on the counter, and the floor has never seen a broom. The mattress creaked and when I pulled the sheets to see the mattress, it was very old, worn out and dirty. One of the cupboards was falling down and there was trash in one of the drawers of the chest. To top that off, the accent chair looked like someone used it for a porn shoot because there were white stains all over it. They did give me another room, but again, the floors haven't seen a broom in a while. The bed is quite comfortable though.More</t>
   </si>
   <si>
+    <t>14alfonsof</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r312390995-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -460,6 +490,9 @@
     <t>This place is very customer satisfaction oriented. I arrived at 7pm to check in and they greeted me happily, gave me and other people 100% of their attention. I left my card inside my room, and kept losing it, and they kept helping me out with a smile. The room was very nice when I got there and it didn't feel like a shady establishment when I stayed there. I will come back whenever I want an extremely affordable room.  It's located within walking distance of fast food eateries, and eat in diners. Close to major highways. Location, location, this place is where it needs to be.More</t>
   </si>
   <si>
+    <t>toobrown</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r288596779-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -487,6 +520,9 @@
     <t>I stayed at this location for about 3 weeks and really did not face any issue. I got a killer deal of $24 per night (via priceline) for this place. I checked in at about 4AM in the morning (my flight was delayed) and the front desk lady was kind enough to hurry up on the entire process. There is plenty of free parking at the property. The property also features FREE wifi. The room was small but was clean. The room had all the basic necessities like Fridge, microwave, 19" Tube TV (yes no flat screen TV). The room is serviced once every 8 days. There are some eating options (sonic, mcdonalds) within 0.5 miles from the property. There is also a pharmacy really close. The TV kept on loosing signal due to wild TX weather. My room was not serviced after the 8th day and had to inform the front desk about it. They made sure to service the room promptly. The checkout process was easy.More</t>
   </si>
   <si>
+    <t>j4ckh4nn4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r265560074-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -514,6 +550,9 @@
     <t>Stayed two weeks, end of march beginning of April 2015. The property is the property. Its kept in good shape.. a little tired but Roland (i think) and James kept the place going with a a smile for whatever is asked. House keeping Johnny and and one other are available for any special request.... towels.. pillow cases... dishes... give it a try. located close to pharmacy, 7 elevens, dry cleaners, fast food.... airport.More</t>
   </si>
   <si>
+    <t>aayushgx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r261802218-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -541,6 +580,9 @@
     <t>After a severe snowstorm in Dallas, 700 flights were cancelled and I being on a transit flight from here to Vegas was stuck on the airport.This was the only accommodation still available near the airport. And since I just needed a place to crash before my morning flight, I didn't mind it.The place was not as bad as I expected. The staff was ok and the rooms were also ok for the price. Overall an ok experience.More</t>
   </si>
   <si>
+    <t>christine40810</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r257029710-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -559,6 +601,9 @@
     <t>I moved into this place on feb 3, 2014 and I moved out Dec 12, 2014. During my stay at this property the staff was awesome and very nice. There are times when I went to pay my weekly bill there was customers that was rude and disrespectful but the GSR rep was very professional and nice no matter what. When things was broken no problem they had it fixed. I lived at rhis properity for 9 month with no problems and no issues. If you are looking for a nice place to stay ..I recommend this property because this staff truly work hard at what they do and they are truly customer  friendly...their customer service was well respected by me .....I just would like to say to this staff thanks for making me feel like I was home ...More</t>
   </si>
   <si>
+    <t>ashton c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r256985640-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -580,6 +625,9 @@
     <t>We like many others were grounded and dfw airport area hotels were all booked except this one. So got it showed up and literally stood in line behind 20 people who also had paid reservations. When I watched for 10-15 minutes and the first person did not get processed ie a room key, I decided to walk with baggage to cvs and Burger King down street to eat. 30 min later I called and asked how many people were still in lobby. She said about 30. So I asked what is taking so long to get people processed?  She said it just takes time to get everything in computer etc. so I go back up there 30 min after that about 25 people still waiting. I stand in line for 1.5 more hrs only to be 5 th in line when we over hear one loud demand to know do they have her reservation. The answer was no we are over booked!!!  They knew that for 3 hrs and never let anyone know. So about 12 of us are standing in lobby feeling so disrespected regarding our time we then scrambled to find a cab to drive us on icy roads back to airport where we all slept on floor. If you are looking for a below motel 6 experience with worse customer service this is the place for you. More</t>
   </si>
   <si>
+    <t>ree l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r248455089-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -607,6 +655,9 @@
     <t>I enjoy this place ,but maybe the employee was having a bad day. Other than that I love this hotel. The place is in a great location. Needs a few upgrades as well. Decent for the price. Grocery stores and plenty of places to grab a bite to eat, also near major highways so its great for NY commute to work.More</t>
   </si>
   <si>
+    <t>Deb2525</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r245117137-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -634,6 +685,9 @@
     <t>When my husband told me he booked this property through Priceline and I read the reviews, I was seriously annoyed! But read on…we were pleasantly surprised and I owe my husband an apology.  OK, it's not a deluxe hotel and it doesn't claim to be. But for a good place to stay and for an unbelievably cheap rate, it was just perfect! We paid $30 but even the regular rate is under $50, I believe. James, the wonderful young man at the front desk, was helpful and clearly has a wonderful work ethic. Best for the future, James! Now, back to the hotel. Great location super close to the D/FW airport. Free parking. Clean, quiet room. Hot shower. Comfortable pillows. Free wifi. Microwave,fridge and stove top. No bugs that I saw anywhere in our two day stay. Granted, TV and furniture were dated, but everything worked. We travel a lot and sometimes, a hotel like this is just what you need for a quick visit to a city (or an extended stay if you want a really great rate) So, seriously, people, let's not be so elitist and let's give the little guys a chance!More</t>
   </si>
   <si>
+    <t>Janetta D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r242296165-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -656,6 +710,9 @@
   </si>
   <si>
     <t>Paid for four nights when I got there and room deposit and pet deposit 100$room deposit was used for the fourth night which I had already paid for I didn't get the room I wanted found and killed three spiders in my room which was a single bed roomThere was no rate reduction and got 17$ back from room deposit I paid 275.96 plus 112.00 for dog for four nights and they still took 84.00$ more for the fourth night  so not worth it will stay at motel 6 next time waste of money very disappointedMore</t>
+  </si>
+  <si>
+    <t>sewuni</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r222681418-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
@@ -687,6 +744,9 @@
     <t>I will definitely be worth your money to stay somewhere else.  I chose this hotel for my 2.5 month stay because it was the cheapest per night but there are others that are only a couple of dollars more and are probably worth it.  Please note that I regularly stay at Motel 6 and other "cheap" hotels so I did not have unrealistic 5 star expectations.  If you do choose this hotel, try to get a room on the inside of the L (the hotel is an L shape).  The inside gets a wonderful breeze that I would only feel though the cross-throughs and the outside (where I was) gets the evening sun and the doors will literally be too hot to touch.
 The bed was the worst and completely destroyed my back to where I'm now on pain meds and had to visit a chiropractor.  As others noted, there was an issue with bugs but it was mostly nighttime bugs coming through the huge cracks around the door every night.  While unpacking, from just walking on the floor, my feet got filthy and left prints on the shower floor.
 There are fewer than 10 tv stations that are not news or sports, of which there are over 10 but none of the cable stations you would expect.  Plus the volume on my tv didn't work right, the volume it was at when it came on was the loudest it...I will definitely be worth your money to stay somewhere else.  I chose this hotel for my 2.5 month stay because it was the cheapest per night but there are others that are only a couple of dollars more and are probably worth it.  Please note that I regularly stay at Motel 6 and other "cheap" hotels so I did not have unrealistic 5 star expectations.  If you do choose this hotel, try to get a room on the inside of the L (the hotel is an L shape).  The inside gets a wonderful breeze that I would only feel though the cross-throughs and the outside (where I was) gets the evening sun and the doors will literally be too hot to touch.The bed was the worst and completely destroyed my back to where I'm now on pain meds and had to visit a chiropractor.  As others noted, there was an issue with bugs but it was mostly nighttime bugs coming through the huge cracks around the door every night.  While unpacking, from just walking on the floor, my feet got filthy and left prints on the shower floor.There are fewer than 10 tv stations that are not news or sports, of which there are over 10 but none of the cable stations you would expect.  Plus the volume on my tv didn't work right, the volume it was at when it came on was the loudest it would go and if you turned it down, you would have to turn the tv off and on again to get it back up to that volume.  It was an old tv, not a flat screen, and had NO external inputs so I could not connect anything to the tv.  The internet was super slow, even if you paid for the faster speed, and at times I could not even connect to my email or yahoo.I had specifically called ahead and told them I would be in later in the evening and to reserve a room at the back because I had a pet.  When I got there, I was put on the third floor on the front, despite having called when I made the reservation and again when I was on my way.  I asked for a week about moving to another room and they would never move me.  After one week, the air conditioner in my room quit working and they finally moved me to a new room; luckily on the bottom floor but not on the inside of the L.  They would not clean my room since I had a pet and would not leave my pet in a tiny cage all day while I was at work just so they could come in and clean.  I got them to come once on a Saturday while I took my pet outside but that was after making a special request and was the only time they cleaned during my 2.5 months.The laundry room is decent but does get hot.  The...More</t>
+  </si>
+  <si>
+    <t>Brandon W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r222439199-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
@@ -716,6 +776,9 @@
 Overall, the hotel staff was great, but the room cleanliness made me seriously wonder how the hotel stays...We stayed for 2 months.  The front desk staff is exceptional, and some of the best hotel staff I have seen from numerous hotel stays.  Our primary reason for staying at this hotel is it looked clean, and was priced below competitors.  The room cleanliness was seriously disappointing.  We had large stains on our carpets when we moved in, and the wood laminate floor appeared to have never been cleaned.  During our two month stay, the hotel room was never vacuumed, and the floors were never cleaned.  I also don't think the comforter has ever been washed.  We would occasionally spill crumbs on the carpet, and week after week, notice they had not been vacuumed (once they were pushed under the bed).  The wood laminate got really dirty, and we would clean it ourselves with wipes. The air conditioner also had mold growing in it that you could see through the vents, but by the time we noticed that, we had already formed our opinion of this hotel. This hotel also has a serious bug problem.  We would find live crickets, beetles, and other bugs in our room multiple times a week.  Our last week here we found 5-6 crickets in our room. I'm not sure where they come from as our door was only opened a few seconds at a time. Overall, the hotel staff was great, but the room cleanliness made me seriously wonder how the hotel stays in business. We tried three different rooms during our stay, and each one had similar problems.As a side note, the WIFI speed here is less than 1 mbps (about .75 most days), so if you plan on using the internet much, you should definitely get another hotel.More</t>
   </si>
   <si>
+    <t>smw1972</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r221099365-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -734,6 +797,9 @@
     <t>Very dirty room...they cancled my reservation because I wasnt there before 8:30pm and I didn't make the resevation until almost 9pm.  The carpert waz disgusting...I had to mop the kitchen and bathroom floors.More</t>
   </si>
   <si>
+    <t>Don M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r214922828-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -761,6 +827,9 @@
     <t>Based upon my excellent stay at the Crossland Economy Studios in Houston (see my other review), I decided to try them again at their Irving, TX location.Overall, everything was fine.  But, I felt they could've done a lot more.  The room felt a little more dirty but interestingly the bathroom was cleaner.  All the amenities were as per normal Crossland Economy and just fine.  I stayed on the first floor, which was fine.  Cable was standard minimal.  WiFi was excellent.For location, you definitely need a car.  Though, you're within 5 minutes walking distance to McDonalds, CVS, Burger King.  There's the Irving Mall nearby but that' an 8 minute drive.Staff are friendly.  Please read my other Crossland Economy review for more details.  What's there applies here (except for any differences noted).More</t>
   </si>
   <si>
+    <t>AJames24</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r195098910-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -788,6 +857,9 @@
     <t>We booked this hotel simply looking for a place to crash for a few hours before an early morning flight.  I booked it quickly through Travelocity on my smart phone and did not do my normal due diligence...terrible mistake!  Trust the other reviews...there were 3 cockroaches in my room and I left the bathroom and kitchenette lights on all night to keep others away.  The room also had a definite smell and someone else in my party had small black hairs all over their bathroom.Shoot for a 3 star or definitely don't get a 2 star "express deal" or "secret hotel"...There are other 2 stars that would be leaps and bounds above this one.More</t>
   </si>
   <si>
+    <t>Navinjunior</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r187590946-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -812,6 +884,9 @@
     <t>Management,  please don't tell me how sorry you are about my experience.  Just fix the problem. By fix, I mean hire a reputable exterminator and close this place until you've irradiated your MASSIVE bedbug problem. I know for a fact that housekeeping and other customers have made you aware of it several times. If I bring bedbugs back to my home, my lawer will send you the bill.The only ratings sbove 1 are for location (out of your control) and for the poor, mortified, but very courteous front desk girl. Give her a raise.More</t>
   </si>
   <si>
+    <t>1947Richard1965</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r185985682-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -837,6 +912,9 @@
   </si>
   <si>
     <t>We booked a two week stay at @$40 a nite, the phone did not work but the cell phone carried the calls.  The internet via free wifi was very slow unless you wanted to pay $5 a day or $15 a week for some higher cost slow anyway faster Wifi.  The shower was very clean and the bed was good for sleeping but bring ear plugs for a quiet sleep.  TV looked a lost till we realized that the channels did not start till 18 but we got some news a road weather conditions.  Would stay again but check room location and room conditions before giving them credit card.More</t>
+  </si>
+  <si>
+    <t>Kaleigh S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r183837833-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
@@ -868,6 +946,9 @@
 All in all, you get what you pay for. I paid a cheap price and wasn't expecting much, so it's hard to be disappointed. I wouldn't pay more than $45 a night for a room here, though. If you're strapped for cash and need a decent place to stay, this is your...I stayed in Dallas to catch a direct flight to PA to visit my s/o on Oct 31. Used hotwire to book the hotel. It's pretty close to the airport, and it was cheap. The rooms are decent size, and it was clean as well, although the air smelled of stale cigarette smoke. The kitchenette and bathroom were nice to have in room. The beds were not terribly comfortable though and the room decor is outdated. I had a first floor room, and at 11pm, shortly after I fell asleep, someone came and banged on my door, when I looked, no one was there. I called the front desk person and her reply was "maybe it was trick or treaters". At a hotel at 11 o'clock at night? I doubt it, even if it was Halloween night. Regardless, she said she'd come check it out. The other problem I had is that someone was smoking somewhere and the smell poured into my room. I'm not a smoker, and I know I'm sensitive to the smell, but I think that if someone's smoking, I shouldn't have to smell it. All in all, you get what you pay for. I paid a cheap price and wasn't expecting much, so it's hard to be disappointed. I wouldn't pay more than $45 a night for a room here, though. If you're strapped for cash and need a decent place to stay, this is your place. Otherwise, spend a little more somewhere else.More</t>
   </si>
   <si>
+    <t>Tellit2myheart</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r180114490-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -892,6 +973,9 @@
     <t>Went for a cowboys and broncos game ...looking to save $$ so .......Love my hotwire when I book my hotels, but this one was the worse place ever ...it ranked 2 stars on hotwire...I was looking to save $$ and well I should have payed more for clean and comfortable.  We arrive saturday Oct 5,2013 outside looks descent looks great, as soon as I opened my door, the beds were not even made up, mattress were exposed, it smelled like a dirty old smoker drunkards place. I had to call front office to have beds made up, it was 6 o clockwhen we checked in  Walls were dirty in the restroom, we were afraid to touch just about anything in that room, YUCK ...  my husband woke up several times during the night for people out in the hall way arguing... okay back to the beds....HARD and UNCOMFORTABLE ...smelly, we went to sams club bought ourselves a blanket to sleep on ...my husband toughed it out on the other bed only to find himself smelling himself with disgust ...he could smell the oder and  he is a smoker...it was bad bad bad.More</t>
   </si>
   <si>
+    <t>gary w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r139478990-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -919,12 +1003,18 @@
     <t>The staff here at Crossland Economy Studios Dallas,Irvng, Tx., are very Professional.The housing-keeping group are expert cleaner and always polite. And I just want to thank the staff Rodney an Robert for a wonderful stay.More</t>
   </si>
   <si>
+    <t>Heavnly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r138583957-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>138583957</t>
   </si>
   <si>
+    <t>david b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r138573938-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -952,6 +1042,9 @@
     <t>The accommodation is fine for one who needs extended stay for a short while. The pricing is reasonable an there is a stove and microwave.The staff are particularly friendly  and accommodating especially  especially Rodney  and Robert.Rodney and Robert are very professional and definitely have very good customer service people skills. Their hospitality made me recommend a few people to this particular  location.There are two particular workers who are totally disrespectful and unprofessional in dealing or talking to clients though. I will not name names.More</t>
   </si>
   <si>
+    <t>ben e</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r130019354-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -979,6 +1072,9 @@
     <t>The first room they give me smelled like urine so bad I decided it was way to stinky to come back to everyday. It smelled like a dog pissed somewhere and the cleaning staff never bothered to clean it up. The next room they gave me was room 310 and it had bed bugs. I put them in a bag and gave it to the staff. They then gave me my third room which smelled also, but I lived with it for the rest of the week. If you choose to stay here check the box springs for bed bugs and buy a couple air fresheners!!More</t>
   </si>
   <si>
+    <t>1travels0me</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r116299257-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1000,6 +1096,9 @@
     <t>These accommodations were fine and affordable.  The room was clean and the A/C worked...and good A/C was definitely needed if you've heard about the recent temps in the Dallas area.  The room had a kitchenette and utensils, which weren't needed, but the microwave and fridge came in handy.The employees were helpful, although they did not have my reservation when I checked in, but that could have been the booking agent that I used.  It was corrected relatively quickly, however.  It's extended stay, so you will have to request any additional towels if it's not a cleaning day.  The bed was very firm, well, hard, but that might work for some...it's just a matter of preference.  There is no pool that I saw, if that matters.The location is on a main thoroughfare between Dallas and Ft. Worth and it's close enough to freeways, but you will need an automobile.  It's fairly far away from most attractions, but it's close to plenty of restaurants.  The area is residential with a mix of commercial and it seemed safe.  It's not 5 stars, but it's a little better than your average motel.More</t>
   </si>
   <si>
+    <t>BooObama</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r61045419-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1018,6 +1117,9 @@
     <t>March 2010</t>
   </si>
   <si>
+    <t>hbo123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r52948563-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1036,6 +1138,9 @@
     <t>December 2009</t>
   </si>
   <si>
+    <t>OrlandoTraveler123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r23602372-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1054,6 +1159,9 @@
     <t>December 2008</t>
   </si>
   <si>
+    <t>priborges</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r23324434-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1072,6 +1180,9 @@
     <t>This place is disgusting. I would not stay there again or in any of hotel of this network, even if paid for. They made a mess with our check in and never asked for our credit cards. Then, when day we go to San Antonio and when we arrive, our stuff has been removed from the room. We were then shown to some of it (most was missing) and it was spread all over their laundry room, with things moved from one bag to the other, other stuff mixed with dirty laundry and several items missing. They returned some of the stuff several days later, but the most dear and expensive was never seen again. They thought we would not come back from San Antonio and diveded the loot among themselves. Up to this day we did not get a penny back from them and it seems it will be long before we do.More</t>
   </si>
   <si>
+    <t>sportstravelerTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r21304738-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1093,6 +1204,9 @@
     <t>I booked the room through Hotwire for $26 a night, so based on this I would say that our stay more than met our expectations. The grounds were clean and well maintaned and the check-in staff were friendly and VERY helpful. The room was clean, spacious,  comfortable and appeared to have been painted fairly recently.  The furniture was not the best quality and was a little scratched up, but otherwise everything was in working order. The mattress was a little hard (I have hip problems and arthritis) but in good shape. As were the bedding, curtains, and carpet. We did not use the kitchenette, but everything seemed clean and in good shape.  If you are used to a more upscale environment, then you might not like this hotel; but if you want a good place to sleep and shower, and maybe cook a small meal, then I think you will enjoy your stay here.More</t>
   </si>
   <si>
+    <t>katielou80</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r7190819-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1109,6 +1223,9 @@
   </si>
   <si>
     <t>March 2007</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r1384460-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
@@ -1631,43 +1748,47 @@
       <c r="A2" t="n">
         <v>36630</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>127598</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -1687,7 +1808,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -1700,37 +1821,37 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1748,50 +1869,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36630</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>127599</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1807,50 +1932,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36630</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>127600</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1868,50 +1997,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36630</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>2745</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1925,50 +2058,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36630</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>127601</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -1986,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
@@ -2005,37 +2142,37 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -2053,56 +2190,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="X8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36630</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>28420</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2116,50 +2257,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36630</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>127602</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="O10" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -2179,7 +2324,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
@@ -2192,37 +2337,37 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2236,50 +2381,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36630</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>127603</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2291,56 +2440,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="X12" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36630</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>43579</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2356,56 +2509,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="X13" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36630</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>127604</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="O14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2423,56 +2580,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="X14" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="Y14" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36630</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>127605</v>
+      </c>
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="O15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2490,56 +2651,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="X15" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="Y15" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36630</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>127606</v>
+      </c>
+      <c r="C16" t="s">
+        <v>166</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2555,56 +2720,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="X16" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="Y16" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36630</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>127607</v>
+      </c>
+      <c r="C17" t="s">
+        <v>176</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="J17" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2622,47 +2791,51 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="X17" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="Y17" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36630</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>127608</v>
+      </c>
+      <c r="C18" t="s">
+        <v>186</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="J18" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="K18" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
@@ -2691,41 +2864,45 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36630</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>127609</v>
+      </c>
+      <c r="C19" t="s">
+        <v>193</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="J19" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -2752,56 +2929,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="X19" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="Y19" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36630</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>127610</v>
+      </c>
+      <c r="C20" t="s">
+        <v>201</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="J20" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="K20" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="O20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2813,56 +2994,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="X20" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="Y20" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36630</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>127611</v>
+      </c>
+      <c r="C21" t="s">
+        <v>211</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="J21" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="K21" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="O21" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2878,47 +3063,51 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="X21" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="Y21" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36630</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>127612</v>
+      </c>
+      <c r="C22" t="s">
+        <v>221</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="J22" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="K22" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
@@ -2945,56 +3134,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="X22" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="Y22" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36630</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>127613</v>
+      </c>
+      <c r="C23" t="s">
+        <v>230</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="J23" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="K23" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="L23" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -3010,56 +3203,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="X23" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="Y23" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36630</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>30491</v>
+      </c>
+      <c r="C24" t="s">
+        <v>240</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="J24" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="K24" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3075,47 +3272,51 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="X24" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="Y24" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36630</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>127614</v>
+      </c>
+      <c r="C25" t="s">
+        <v>248</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="J25" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="K25" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
@@ -3142,56 +3343,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="X25" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="Y25" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36630</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>34636</v>
+      </c>
+      <c r="C26" t="s">
+        <v>255</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="J26" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="K26" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3209,56 +3414,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="X26" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="Y26" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36630</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>127615</v>
+      </c>
+      <c r="C27" t="s">
+        <v>265</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="J27" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="K27" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="L27" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="O27" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3270,47 +3479,51 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="X27" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="Y27" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36630</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>127616</v>
+      </c>
+      <c r="C28" t="s">
+        <v>275</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="J28" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="K28" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="L28" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
@@ -3337,56 +3550,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="X28" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="Y28" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36630</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>127617</v>
+      </c>
+      <c r="C29" t="s">
+        <v>284</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="J29" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="K29" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="L29" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="O29" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3408,56 +3625,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="X29" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="Y29" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36630</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>127618</v>
+      </c>
+      <c r="C30" t="s">
+        <v>294</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="J30" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="K30" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="L30" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="O30" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3479,56 +3700,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="X30" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="Y30" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36630</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>127619</v>
+      </c>
+      <c r="C31" t="s">
+        <v>304</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="J31" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="K31" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="L31" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="O31" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -3550,56 +3775,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="X31" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="Y31" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36630</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>127620</v>
+      </c>
+      <c r="C32" t="s">
+        <v>313</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="J32" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="K32" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="L32" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="O32" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3621,38 +3850,42 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="X32" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="Y32" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36630</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>127621</v>
+      </c>
+      <c r="C33" t="s">
+        <v>323</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="J33" t="s"/>
       <c r="K33" t="s"/>
@@ -3669,51 +3902,52 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
-      <c r="Y33" t="s"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36630</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>77482</v>
+      </c>
+      <c r="C34" t="s">
+        <v>326</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="J34" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="K34" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="L34" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="O34" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3735,56 +3969,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="X34" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="Y34" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36630</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>127622</v>
+      </c>
+      <c r="C35" t="s">
+        <v>336</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="J35" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="K35" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="L35" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3806,56 +4044,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="X35" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="Y35" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36630</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>127623</v>
+      </c>
+      <c r="C36" t="s">
+        <v>346</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="J36" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="K36" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="L36" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="O36" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -3875,50 +4117,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36630</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>127624</v>
+      </c>
+      <c r="C37" t="s">
+        <v>354</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="J37" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="K37" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="L37" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="O37" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -3942,50 +4188,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36630</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>127625</v>
+      </c>
+      <c r="C38" t="s">
+        <v>361</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="J38" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="K38" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="L38" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="O38" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -4009,50 +4259,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36630</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>127626</v>
+      </c>
+      <c r="C39" t="s">
+        <v>368</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="J39" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="K39" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="L39" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4076,50 +4330,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36630</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>127627</v>
+      </c>
+      <c r="C40" t="s">
+        <v>375</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="J40" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="K40" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="L40" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="O40" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -4143,50 +4401,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36630</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>127628</v>
+      </c>
+      <c r="C41" t="s">
+        <v>382</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="J41" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="K41" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="L41" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="O41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4208,50 +4470,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36630</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>127629</v>
+      </c>
+      <c r="C42" t="s">
+        <v>390</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="J42" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="K42" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="L42" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -4275,41 +4541,45 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36630</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>397</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="J43" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="K43" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="L43" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
@@ -4328,7 +4598,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_150.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_150.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="486">
   <si>
     <t>STR#</t>
   </si>
@@ -150,13 +150,10 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>jntcm</t>
-  </si>
-  <si>
-    <t>06/07/2018</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r544889124-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r593857255-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>56032</t>
@@ -165,6 +162,30 @@
     <t>109064</t>
   </si>
   <si>
+    <t>593857255</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>A lot of room for improvement!!!</t>
+  </si>
+  <si>
+    <t>I saved money by staying here.  I believe the employees onsite do the best they can to their ability or their rank on the food chain.  The first  two or three nights I killed 20+ german roaches.  I think there should be a better tre atment for the roaches, instead of the current band-aid process.  Maybe having the business shutdown for a couple of weeks so that more than one pest control employee can effectively treat the business.  And it would allow for follow up treatment visits.  There was no Freon in the a/c unit for the room, with Freon the room still wasn't as cool as some other rooms I have stayed in.  I picked up a small fan to stay comfortable in a certain area of the room, or so I could sleep.  Also there were a few times in the room above that the neighbors children would run and jump.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I saved money by staying here.  I believe the employees onsite do the best they can to their ability or their rank on the food chain.  The first  two or three nights I killed 20+ german roaches.  I think there should be a better tre atment for the roaches, instead of the current band-aid process.  Maybe having the business shutdown for a couple of weeks so that more than one pest control employee can effectively treat the business.  And it would allow for follow up treatment visits.  There was no Freon in the a/c unit for the room, with Freon the room still wasn't as cool as some other rooms I have stayed in.  I picked up a small fan to stay comfortable in a certain area of the room, or so I could sleep.  Also there were a few times in the room above that the neighbors children would run and jump.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r544889124-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
     <t>544889124</t>
   </si>
   <si>
@@ -180,13 +201,10 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Being an extended stay motel, I was surprised that there was no refrigerator.  There was a big microwave and a stove top, but no way to keep cold food.  The location was convenient for me, right by tons of restaurants and shops.  The caliber of people who stay at this motel are kind of rough.  All day people sit in their cars and listen to loud bass booming music.  In the afternoon/evenings gangs of unruly children run rampant all over the property screaming and making way too much noise.  People wander around outside talking on their cell phones on speaker phone enabling you to hear both sides of the conversation.  If you plan to sleep late or catch a cat nap during the day, this is not the place for you.  It does quiet down at night, allowing one to get a decent night's sleep.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r533429592-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r533429592-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>533429592</t>
@@ -214,10 +232,7 @@
 The next morning we complained and the man at the front desk didn't seem phased or concerned. He simply offered to take one night off of our bill. Didn't ask any questions or apologize. When asked if they spray on a regular basis, the response was, "the rooms are renovated so this shouldn't be a problem." Anyone with common sense knows this is not logical. Since when do roaches care if a room is renovated? If they're not spraying, which clearly they aren't, then there will always be roaches; whether the room has a flat screen TV...Let's start with the front desk. Completely unprofessional. You're lucky if someone is even there during their listed hours. If you need anything after hours, you can forget it. They number they give you to call is worthless. You'll have to climb over the drunks passed out outside your room and on the stairs to get to the office and hope someone answers the call button or opens when you knock. If you didn't catch my drift, the place is extremely unsafe. Would not recommend being out alone or coming back late. I only left the room at night when I found cockroaches and wanted something to be done. In a not so shocking turn of events, the woman who finally answered the call button at the front desk was completely unsympathetic and sent a security guard up with a can of raid.The next morning we complained and the man at the front desk didn't seem phased or concerned. He simply offered to take one night off of our bill. Didn't ask any questions or apologize. When asked if they spray on a regular basis, the response was, "the rooms are renovated so this shouldn't be a problem." Anyone with common sense knows this is not logical. Since when do roaches care if a room is renovated? If they're not spraying, which clearly they aren't, then there will always be roaches; whether the room has a flat screen TV or not. The rooms themselves were disgusting. The comforters were stained and the bathroom smelled of urine. The kitchenette had dirt and crumbs in the cabinets. Clearly the rooms had not been cleaned. This was the worst hotel I'd ever stayed at and I would strongly recommend you stay away.More</t>
   </si>
   <si>
-    <t>ralphb317</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r498348620-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r498348620-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>498348620</t>
@@ -238,10 +253,7 @@
     <t>Don;t know about the rooms, All I know is made a reservation (with confirmation number) directly with the corporate telephone number. Got to the hotel and apparently my reservation was cancelled the day before. There was nothing they could do for me. NOTHING to help me out, help find me another place or anything. TOld me it was my fault from brooking it through the web. I told them again, I called the corporate phone number for reservations not a web site. Then was told that unless you book directly and through this one person during the day, their is no guarantee you will get a room.I was the third person in the room and two others had the same experience. Yes I did get upset and probably said a swear word (which I apologized for) I did not call them a name but just a wwwwwwwwwword.   It was 6 pm and she then left with the "guests" sitting in the very small lobby. I had to spend the rest of the evening trying to find a place that had 30+ days open. Will never ever try them again. Called corporate got no response, sent letter, no response and sent e-mail, no responseMore</t>
   </si>
   <si>
-    <t>BpARJ</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r492325678-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r492325678-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>492325678</t>
@@ -265,10 +277,7 @@
     <t>My wife, niece and I stayed at this hotel to visit family for a few days. The Manager who was working the front desk was very personable and very welcoming to us. there was a Congolese family also checking in and she was able to take care of all of our room needs! The housekeeper who was cleaning our room went out of her way to make sure our room was up to some serious clean standards (I really wish I could remember her name)...(NaSheima????) Anyway it was a miserable stay for me because I was sick with fever the entire time, but the room was comfortable, clean, quiet and we know that if we go back to this area again we will definitely look at this hotel again!More</t>
   </si>
   <si>
-    <t>Justin H</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r421635374-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r421635374-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>421635374</t>
@@ -289,10 +298,7 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Lisha L</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r392701275-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r392701275-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>392701275</t>
@@ -310,7 +316,7 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>Alyssa B, Public Relations Manager at Crossland Studios - Dallas - Irving, responded to this reviewResponded July 19, 2016</t>
+    <t>Alyssa B, Public Relations Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded July 19, 2016</t>
   </si>
   <si>
     <t>Responded July 19, 2016</t>
@@ -319,7 +325,7 @@
     <t>When I arrived , I noticed people walking BACK and forth from different areas around the Hotel. Some were standing out on the Balconies SMOKING, Some where sitting on stairs and appeared to be HIGH. I saw groups of people walking up from the streets , I thought I was in a WALKING DEAD Filming. The receptionist was courteous and professional. However, when I got to my room, I wanted to Faint! There was hair on my pillows, it smelled like SMOKE (And I actually Paid for a non smoking room) and quite frankly, I would've been better off sleeping in MY CAR!  This place is Disgusting, I won't waste my time giving you a description, just take a look at the PICTURES!Oh Yeah, I asked for new linen, never received it, so I called the front desk to request the linen again. I was told "I am busy, you can come and get them though" :/ I guess you GET what you PAY for right?More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r388836572-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r388836572-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>388836572</t>
@@ -334,7 +340,7 @@
     <t>Everything is horrible.   Don't  stay  on  west  outside   rooms.....  so  hot  in  spring,,summer  and  fall.   direct  sun  on   outside   door   will  burn  your  hand.  Inside never  gets  below  85   degrees.....a/c not   adequate to   cool  room.Will  need  large  fan  not  to  sweat.  TV   never   works....always  cutting  out  even  when   no  storms  in  entire  state of  Texas.  Watch  out   for  bedbugs.   Microwave   barely works  Only  2   bath  towels/wk .  no  kitchen   towels.   ONLY   let  Lea   clean  room   others(males)   don't   clean  and  are  thiefs.   Desk  staff   not   adequately  trained   and  can be  extremely  rude  especially  weekend  afternoon   staff.    You   can  do  better  elsewhereMoreShow less</t>
   </si>
   <si>
-    <t>Alyssa B, Public Relations Manager at Crossland Studios - Dallas - Irving, responded to this reviewResponded July 12, 2016</t>
+    <t>Alyssa B, Public Relations Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded July 12, 2016</t>
   </si>
   <si>
     <t>Responded July 12, 2016</t>
@@ -343,10 +349,7 @@
     <t>Everything is horrible.   Don't  stay  on  west  outside   rooms.....  so  hot  in  spring,,summer  and  fall.   direct  sun  on   outside   door   will  burn  your  hand.  Inside never  gets  below  85   degrees.....a/c not   adequate to   cool  room.Will  need  large  fan  not  to  sweat.  TV   never   works....always  cutting  out  even  when   no  storms  in  entire  state of  Texas.  Watch  out   for  bedbugs.   Microwave   barely works  Only  2   bath  towels/wk .  no  kitchen   towels.   ONLY   let  Lea   clean  room   others(males)   don't   clean  and  are  thiefs.   Desk  staff   not   adequately  trained   and  can be  extremely  rude  especially  weekend  afternoon   staff.    You   can  do  better  elsewhereMore</t>
   </si>
   <si>
-    <t>Jim W</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r385511678-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r385511678-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>385511678</t>
@@ -364,10 +367,7 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t>rula190</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r368646873-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r368646873-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>368646873</t>
@@ -388,7 +388,7 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r360379194-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r360379194-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>360379194</t>
@@ -406,10 +406,101 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t>Nunjisgirl</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r313758338-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r355035797-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>355035797</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>Well worth the money....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's an economical extended stay motel that is well worth the money spent. The rooms are clean and smell fresh. They don't have the noticeably old looking or stained blankets, sheets or towels - on the contrary, all these things look fresh and new and not worn out. This particular venue is located right on the heart of Irving with close proximity to the airport as well as fast foods, grocery stores and restaurants. </t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r353847575-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>353847575</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"D" For A Real Dump! </t>
+  </si>
+  <si>
+    <t>I smelled Feces as soon as I opened the door. Didn' t stay any longer. A nice room which like Intown Suites in Plano, Texas,  revealed Filth, Non Cleaning and with a price that was more then a day's wages. If you have to stay here clean it from top to bottom with a white towel and lysol. I know sometimes people need shelter asap and turn to extended stay hotels for stability and pricing.  I am unhappy to say that I recommend only Extended Stay America in Irving, Texas. But I am Not going to give up on the other two. Will visit them in other cities soon and hopefully will have some good reports. In the meantime let the traveler remember two things. Never give them your money before you preview the room. Keeps you from having to argue or prevents the Con.  And two. Go over the room using The White Towel Test and your bare recently clean feet.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>I smelled Feces as soon as I opened the door. Didn' t stay any longer. A nice room which like Intown Suites in Plano, Texas,  revealed Filth, Non Cleaning and with a price that was more then a day's wages. If you have to stay here clean it from top to bottom with a white towel and lysol. I know sometimes people need shelter asap and turn to extended stay hotels for stability and pricing.  I am unhappy to say that I recommend only Extended Stay America in Irving, Texas. But I am Not going to give up on the other two. Will visit them in other cities soon and hopefully will have some good reports. In the meantime let the traveler remember two things. Never give them your money before you preview the room. Keeps you from having to argue or prevents the Con.  And two. Go over the room using The White Towel Test and your bare recently clean feet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r344371341-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>344371341</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>Crosslands n extended stay corp terrible!!!</t>
+  </si>
+  <si>
+    <t>Room was small and everything was worn. Bed was lumpy and had an odor. Pillows were flat. Sheets felt like sandpaper. Top spread worn with burn holes. Carpet had numerous stains and worn. TV. Was old fashion tube type small screen with limited number of channels. There is no daily room service so when your trash is full you empty by staircase. Along with all the other guests emptying trash in same area it stinks on a hot day. No room service means you also make your own bed and if you need additional towels clean you must bring your used ones to office for exchange. Unless you want to pay additional room service fees.
+Also one early morning at 2am a drug deal went bad in the room next to mine and multiple shots were fired. Local police evacuated the entire establishment to the front curb of property till 8am. Waiting in front cold tired and hungry there was no effort made by managment to offer any comfort to anyone. Afterwards when the ordeal was over there was no comps offered and not even an apology.
+The following week I had my laptop and spare car key along with other misc items stolen from room. After making police report once again managment offered no comps or even an apology. Upon check out i asked for some type of reimbursement and was told it report would be given to home...Room was small and everything was worn. Bed was lumpy and had an odor. Pillows were flat. Sheets felt like sandpaper. Top spread worn with burn holes. Carpet had numerous stains and worn. TV. Was old fashion tube type small screen with limited number of channels. There is no daily room service so when your trash is full you empty by staircase. Along with all the other guests emptying trash in same area it stinks on a hot day. No room service means you also make your own bed and if you need additional towels clean you must bring your used ones to office for exchange. Unless you want to pay additional room service fees.Also one early morning at 2am a drug deal went bad in the room next to mine and multiple shots were fired. Local police evacuated the entire establishment to the front curb of property till 8am. Waiting in front cold tired and hungry there was no effort made by managment to offer any comfort to anyone. Afterwards when the ordeal was over there was no comps offered and not even an apology.The following week I had my laptop and spare car key along with other misc items stolen from room. After making police report once again managment offered no comps or even an apology. Upon check out i asked for some type of reimbursement and was told it report would be given to home office Extended Stay.After waiting 2 weeks I contacted the home office and they knew nothing. I explained about the incident and was told I would be contacted. After waiting 2 more weeks I called the main offices Extended Stay once again. I was told they offer me nothing! I then raised a complaint with the BBB and explained all to them in their forms. After waiting 2 more weeks I inquired with the BBB about the status as this complaint was unresolved. 2 more days pass then I get a call from the main offices Extended Stay. I was told they offer me $300 and a free stay. I rejected that and informed the BBB. Upon receiving a second offer from the main offices Extended Stay I was given the offer of $400 and 3 free nights stay. My losses are over$1200 and they offer a fraction and why would I ever want to stay at any of their properties after being treated like this and having my spare car key whereabouts unknown. My next option to be made whole will be to file a small claim in the courts and sue this business. I have never been treated with such disrespect at any such business in my whole life.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Room was small and everything was worn. Bed was lumpy and had an odor. Pillows were flat. Sheets felt like sandpaper. Top spread worn with burn holes. Carpet had numerous stains and worn. TV. Was old fashion tube type small screen with limited number of channels. There is no daily room service so when your trash is full you empty by staircase. Along with all the other guests emptying trash in same area it stinks on a hot day. No room service means you also make your own bed and if you need additional towels clean you must bring your used ones to office for exchange. Unless you want to pay additional room service fees.
+Also one early morning at 2am a drug deal went bad in the room next to mine and multiple shots were fired. Local police evacuated the entire establishment to the front curb of property till 8am. Waiting in front cold tired and hungry there was no effort made by managment to offer any comfort to anyone. Afterwards when the ordeal was over there was no comps offered and not even an apology.
+The following week I had my laptop and spare car key along with other misc items stolen from room. After making police report once again managment offered no comps or even an apology. Upon check out i asked for some type of reimbursement and was told it report would be given to home...Room was small and everything was worn. Bed was lumpy and had an odor. Pillows were flat. Sheets felt like sandpaper. Top spread worn with burn holes. Carpet had numerous stains and worn. TV. Was old fashion tube type small screen with limited number of channels. There is no daily room service so when your trash is full you empty by staircase. Along with all the other guests emptying trash in same area it stinks on a hot day. No room service means you also make your own bed and if you need additional towels clean you must bring your used ones to office for exchange. Unless you want to pay additional room service fees.Also one early morning at 2am a drug deal went bad in the room next to mine and multiple shots were fired. Local police evacuated the entire establishment to the front curb of property till 8am. Waiting in front cold tired and hungry there was no effort made by managment to offer any comfort to anyone. Afterwards when the ordeal was over there was no comps offered and not even an apology.The following week I had my laptop and spare car key along with other misc items stolen from room. After making police report once again managment offered no comps or even an apology. Upon check out i asked for some type of reimbursement and was told it report would be given to home office Extended Stay.After waiting 2 weeks I contacted the home office and they knew nothing. I explained about the incident and was told I would be contacted. After waiting 2 more weeks I called the main offices Extended Stay once again. I was told they offer me nothing! I then raised a complaint with the BBB and explained all to them in their forms. After waiting 2 more weeks I inquired with the BBB about the status as this complaint was unresolved. 2 more days pass then I get a call from the main offices Extended Stay. I was told they offer me $300 and a free stay. I rejected that and informed the BBB. Upon receiving a second offer from the main offices Extended Stay I was given the offer of $400 and 3 free nights stay. My losses are over$1200 and they offer a fraction and why would I ever want to stay at any of their properties after being treated like this and having my spare car key whereabouts unknown. My next option to be made whole will be to file a small claim in the courts and sue this business. I have never been treated with such disrespect at any such business in my whole life.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r336463172-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>336463172</t>
+  </si>
+  <si>
+    <t>01/01/2016</t>
+  </si>
+  <si>
+    <t>BeWare!</t>
+  </si>
+  <si>
+    <t>Serious Quality Issues! The outside of the building looked o.k., however,  Guest(s) Beware. . . Pet friendly hotel, but, other creatures were present, (bugs), in rooms also.  Needs some SERIOUS deep cleaning.  Unwelcome odor in the rooms,  (fumigation? spray for bugs?).  Booked through ORBITZ.  Cross this one off your to-stay list! (You get what you pay for!)   Could be health issue!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r328902011-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>328902011</t>
+  </si>
+  <si>
+    <t>11/24/2015</t>
+  </si>
+  <si>
+    <t>A quickie</t>
+  </si>
+  <si>
+    <t>I had to find a place quickly and wasn't looking for anything more than a bed and bathroom. I booked this room through Priceline. It appears to be fairly new and is a clean place and not a bad neighborhood. It had a small stove and fridge. The 2 beds were queen sized. The television was small and it had a shower stall and not a bathtub. This place was just what I needed in a clean room and comfortable bed.I recommend it as a 2 star nothing special but a good value for your dollar hotlel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r313758338-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>313758338</t>
@@ -427,7 +518,7 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Studios - Dallas - Irving, responded to this reviewResponded October 12, 2015</t>
+    <t>Manager_11525, General Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded October 12, 2015</t>
   </si>
   <si>
     <t>Responded October 12, 2015</t>
@@ -436,10 +527,7 @@
     <t>Immediately struck by how dirty the room was! Visible black bacteria ring under toilet bowl rim, floor needing swept/vacuumed, liquid splatters on cabinets.  Bed/pillows hard and uncomfortable.   Non-smoking room smelled like an ashtray!  Run!More</t>
   </si>
   <si>
-    <t>Jeff J</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r313505829-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r313505829-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>313505829</t>
@@ -454,7 +542,7 @@
     <t>Checked into my room and right away was stunned at how dirty it was. The walls were stained, there were crumbs on the counter, and the floor has never seen a broom. The mattress creaked and when I pulled the sheets to see the mattress, it was very old, worn out and dirty. One of the cupboards was falling down and there was trash in one of the drawers of the chest. To top that off, the accent chair looked like someone used it for a porn shoot because there were white stains all over it. They did give me another room, but again, the floors haven't seen a broom in a while. The bed is quite comfortable though.MoreShow less</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Studios - Dallas - Irving, responded to this reviewResponded September 30, 2015</t>
+    <t>Manager_11525, General Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded September 30, 2015</t>
   </si>
   <si>
     <t>Responded September 30, 2015</t>
@@ -463,10 +551,7 @@
     <t>Checked into my room and right away was stunned at how dirty it was. The walls were stained, there were crumbs on the counter, and the floor has never seen a broom. The mattress creaked and when I pulled the sheets to see the mattress, it was very old, worn out and dirty. One of the cupboards was falling down and there was trash in one of the drawers of the chest. To top that off, the accent chair looked like someone used it for a porn shoot because there were white stains all over it. They did give me another room, but again, the floors haven't seen a broom in a while. The bed is quite comfortable though.More</t>
   </si>
   <si>
-    <t>14alfonsof</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r312390995-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r312390995-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>312390995</t>
@@ -481,7 +566,7 @@
     <t>This place is very customer satisfaction oriented. I arrived at 7pm to check in and they greeted me happily, gave me and other people 100% of their attention. I left my card inside my room, and kept losing it, and they kept helping me out with a smile. The room was very nice when I got there and it didn't feel like a shady establishment when I stayed there. I will come back whenever I want an extremely affordable room.  It's located within walking distance of fast food eateries, and eat in diners. Close to major highways. Location, location, this place is where it needs to be.MoreShow less</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Studios - Dallas - Irving, responded to this reviewResponded September 29, 2015</t>
+    <t>Manager_11525, General Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded September 29, 2015</t>
   </si>
   <si>
     <t>Responded September 29, 2015</t>
@@ -490,10 +575,7 @@
     <t>This place is very customer satisfaction oriented. I arrived at 7pm to check in and they greeted me happily, gave me and other people 100% of their attention. I left my card inside my room, and kept losing it, and they kept helping me out with a smile. The room was very nice when I got there and it didn't feel like a shady establishment when I stayed there. I will come back whenever I want an extremely affordable room.  It's located within walking distance of fast food eateries, and eat in diners. Close to major highways. Location, location, this place is where it needs to be.More</t>
   </si>
   <si>
-    <t>toobrown</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r288596779-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r288596779-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>288596779</t>
@@ -511,7 +593,7 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Studios - Dallas - Irving, responded to this reviewResponded July 29, 2015</t>
+    <t>Manager_11525, General Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded July 29, 2015</t>
   </si>
   <si>
     <t>Responded July 29, 2015</t>
@@ -520,10 +602,7 @@
     <t>I stayed at this location for about 3 weeks and really did not face any issue. I got a killer deal of $24 per night (via priceline) for this place. I checked in at about 4AM in the morning (my flight was delayed) and the front desk lady was kind enough to hurry up on the entire process. There is plenty of free parking at the property. The property also features FREE wifi. The room was small but was clean. The room had all the basic necessities like Fridge, microwave, 19" Tube TV (yes no flat screen TV). The room is serviced once every 8 days. There are some eating options (sonic, mcdonalds) within 0.5 miles from the property. There is also a pharmacy really close. The TV kept on loosing signal due to wild TX weather. My room was not serviced after the 8th day and had to inform the front desk about it. They made sure to service the room promptly. The checkout process was easy.More</t>
   </si>
   <si>
-    <t>j4ckh4nn4</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r265560074-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r265560074-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>265560074</t>
@@ -541,7 +620,7 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Studios - Dallas - Irving, responded to this reviewResponded April 22, 2015</t>
+    <t>Manager_11525, General Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded April 22, 2015</t>
   </si>
   <si>
     <t>Responded April 22, 2015</t>
@@ -550,10 +629,7 @@
     <t>Stayed two weeks, end of march beginning of April 2015. The property is the property. Its kept in good shape.. a little tired but Roland (i think) and James kept the place going with a a smile for whatever is asked. House keeping Johnny and and one other are available for any special request.... towels.. pillow cases... dishes... give it a try. located close to pharmacy, 7 elevens, dry cleaners, fast food.... airport.More</t>
   </si>
   <si>
-    <t>aayushgx</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r261802218-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r261802218-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>261802218</t>
@@ -571,7 +647,7 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Studios - Dallas - Irving, responded to this reviewResponded April 13, 2015</t>
+    <t>Manager_11525, General Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded April 13, 2015</t>
   </si>
   <si>
     <t>Responded April 13, 2015</t>
@@ -580,10 +656,7 @@
     <t>After a severe snowstorm in Dallas, 700 flights were cancelled and I being on a transit flight from here to Vegas was stuck on the airport.This was the only accommodation still available near the airport. And since I just needed a place to crash before my morning flight, I didn't mind it.The place was not as bad as I expected. The staff was ok and the rooms were also ok for the price. Overall an ok experience.More</t>
   </si>
   <si>
-    <t>christine40810</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r257029710-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r257029710-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>257029710</t>
@@ -601,10 +674,7 @@
     <t>I moved into this place on feb 3, 2014 and I moved out Dec 12, 2014. During my stay at this property the staff was awesome and very nice. There are times when I went to pay my weekly bill there was customers that was rude and disrespectful but the GSR rep was very professional and nice no matter what. When things was broken no problem they had it fixed. I lived at rhis properity for 9 month with no problems and no issues. If you are looking for a nice place to stay ..I recommend this property because this staff truly work hard at what they do and they are truly customer  friendly...their customer service was well respected by me .....I just would like to say to this staff thanks for making me feel like I was home ...More</t>
   </si>
   <si>
-    <t>ashton c</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r256985640-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r256985640-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>256985640</t>
@@ -616,7 +686,7 @@
     <t>We like many others were grounded and dfw airport area hotels were all booked except this one. So got it showed up and literally stood in line behind 20 people who also had paid reservations. When I watched for 10-15 minutes and the first person did not get processed ie a room key, I decided to walk with baggage to cvs and Burger King down street to eat. 30 min later I called and asked how many people were still in lobby. She said about 30. So I asked what is taking so long to get people processed?  She said it just takes time to get everything in computer etc. so I go back up there 30 min after that about 25 people still waiting. I stand in line for 1.5 more hrs only to be 5 th in line when we over hear one loud demand to know do they have her reservation. The answer was no we are over booked!!!  They knew that for 3 hrs and never let anyone know. So about 12 of us are standing in lobby feeling so disrespected regarding our time we then scrambled to find a cab to drive us on icy roads back to airport where we all slept on floor. If you are looking for a below motel 6 experience with worse customer service this is the place for you. MoreShow less</t>
   </si>
   <si>
-    <t>Manager_11525, Manager at Crossland Studios - Dallas - Irving, responded to this reviewResponded March 19, 2015</t>
+    <t>Manager_11525, Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded March 19, 2015</t>
   </si>
   <si>
     <t>Responded March 19, 2015</t>
@@ -625,10 +695,7 @@
     <t>We like many others were grounded and dfw airport area hotels were all booked except this one. So got it showed up and literally stood in line behind 20 people who also had paid reservations. When I watched for 10-15 minutes and the first person did not get processed ie a room key, I decided to walk with baggage to cvs and Burger King down street to eat. 30 min later I called and asked how many people were still in lobby. She said about 30. So I asked what is taking so long to get people processed?  She said it just takes time to get everything in computer etc. so I go back up there 30 min after that about 25 people still waiting. I stand in line for 1.5 more hrs only to be 5 th in line when we over hear one loud demand to know do they have her reservation. The answer was no we are over booked!!!  They knew that for 3 hrs and never let anyone know. So about 12 of us are standing in lobby feeling so disrespected regarding our time we then scrambled to find a cab to drive us on icy roads back to airport where we all slept on floor. If you are looking for a below motel 6 experience with worse customer service this is the place for you. More</t>
   </si>
   <si>
-    <t>ree l</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r248455089-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r248455089-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>248455089</t>
@@ -646,7 +713,7 @@
     <t>January 2015</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Studios - Dallas - Irving, responded to this reviewResponded January 21, 2015</t>
+    <t>Manager_11525, General Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded January 21, 2015</t>
   </si>
   <si>
     <t>Responded January 21, 2015</t>
@@ -655,10 +722,7 @@
     <t>I enjoy this place ,but maybe the employee was having a bad day. Other than that I love this hotel. The place is in a great location. Needs a few upgrades as well. Decent for the price. Grocery stores and plenty of places to grab a bite to eat, also near major highways so its great for NY commute to work.More</t>
   </si>
   <si>
-    <t>Deb2525</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r245117137-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r245117137-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>245117137</t>
@@ -676,7 +740,7 @@
     <t>December 2014</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Studios - Dallas - Irving, responded to this reviewResponded December 26, 2014</t>
+    <t>Manager_11525, General Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded December 26, 2014</t>
   </si>
   <si>
     <t>Responded December 26, 2014</t>
@@ -685,10 +749,7 @@
     <t>When my husband told me he booked this property through Priceline and I read the reviews, I was seriously annoyed! But read on…we were pleasantly surprised and I owe my husband an apology.  OK, it's not a deluxe hotel and it doesn't claim to be. But for a good place to stay and for an unbelievably cheap rate, it was just perfect! We paid $30 but even the regular rate is under $50, I believe. James, the wonderful young man at the front desk, was helpful and clearly has a wonderful work ethic. Best for the future, James! Now, back to the hotel. Great location super close to the D/FW airport. Free parking. Clean, quiet room. Hot shower. Comfortable pillows. Free wifi. Microwave,fridge and stove top. No bugs that I saw anywhere in our two day stay. Granted, TV and furniture were dated, but everything worked. We travel a lot and sometimes, a hotel like this is just what you need for a quick visit to a city (or an extended stay if you want a really great rate) So, seriously, people, let's not be so elitist and let's give the little guys a chance!More</t>
   </si>
   <si>
-    <t>Janetta D</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r242296165-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r242296165-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>242296165</t>
@@ -703,7 +764,7 @@
     <t>Paid for four nights when I got there and room deposit and pet deposit 100$room deposit was used for the fourth night which I had already paid for I didn't get the room I wanted found and killed three spiders in my room which was a single bed roomThere was no rate reduction and got 17$ back from room deposit I paid 275.96 plus 112.00 for dog for four nights and they still took 84.00$ more for the fourth night  so not worth it will stay at motel 6 next time waste of money very disappointedMoreShow less</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Studios - Dallas - Irving, responded to this reviewResponded December 4, 2014</t>
+    <t>Manager_11525, General Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded December 4, 2014</t>
   </si>
   <si>
     <t>Responded December 4, 2014</t>
@@ -712,10 +773,7 @@
     <t>Paid for four nights when I got there and room deposit and pet deposit 100$room deposit was used for the fourth night which I had already paid for I didn't get the room I wanted found and killed three spiders in my room which was a single bed roomThere was no rate reduction and got 17$ back from room deposit I paid 275.96 plus 112.00 for dog for four nights and they still took 84.00$ more for the fourth night  so not worth it will stay at motel 6 next time waste of money very disappointedMore</t>
   </si>
   <si>
-    <t>sewuni</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r222681418-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r222681418-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>222681418</t>
@@ -729,13 +787,13 @@
   <si>
     <t>I will definitely be worth your money to stay somewhere else.  I chose this hotel for my 2.5 month stay because it was the cheapest per night but there are others that are only a couple of dollars more and are probably worth it.  Please note that I regularly stay at Motel 6 and other "cheap" hotels so I did not have unrealistic 5 star expectations.  If you do choose this hotel, try to get a room on the inside of the L (the hotel is an L shape).  The inside gets a wonderful breeze that I would only feel though the cross-throughs and the outside (where I was) gets the evening sun and the doors will literally be too hot to touch.
 The bed was the worst and completely destroyed my back to where I'm now on pain meds and had to visit a chiropractor.  As others noted, there was an issue with bugs but it was mostly nighttime bugs coming through the huge cracks around the door every night.  While unpacking, from just walking on the floor, my feet got filthy and left prints on the shower floor.
-There are fewer than 10 tv stations that are not news or sports, of which there are over 10 but none of the cable stations you would expect.  Plus the volume on my tv didn't work right, the volume it was at when it came on was the loudest it...I will definitely be worth your money to stay somewhere else.  I chose this hotel for my 2.5 month stay because it was the cheapest per night but there are others that are only a couple of dollars more and are probably worth it.  Please note that I regularly stay at Motel 6 and other "cheap" hotels so I did not have unrealistic 5 star expectations.  If you do choose this hotel, try to get a room on the inside of the L (the hotel is an L shape).  The inside gets a wonderful breeze that I would only feel though the cross-throughs and the outside (where I was) gets the evening sun and the doors will literally be too hot to touch.The bed was the worst and completely destroyed my back to where I'm now on pain meds and had to visit a chiropractor.  As others noted, there was an issue with bugs but it was mostly nighttime bugs coming through the huge cracks around the door every night.  While unpacking, from just walking on the floor, my feet got filthy and left prints on the shower floor.There are fewer than 10 tv stations that are not news or sports, of which there are over 10 but none of the cable stations you would expect.  Plus the volume on my tv didn't work right, the volume it was at when it came on was the loudest it would go and if you turned it down, you would have to turn the tv off and on again to get it back up to that volume.  It was an old tv, not a flat screen, and had NO external inputs so I could not connect anything to the tv.  The internet was super slow, even if you paid for the faster speed, and at times I could not even connect to my email or yahoo.I had specifically called ahead and told them I would be in later in the evening and to reserve a room at the back because I had a pet.  When I got there, I was put on the third floor on the front, despite having called when I made the reservation and again when I was on my way.  I asked for a week about moving to another room and they would never move me.  After one week, the air conditioner in my room quit working and they finally moved me to a new room; luckily on the bottom floor but not on the inside of the L.  They would not clean my room since I had a pet and would not leave my pet in a tiny cage all day while I was at work just so they could come in and clean.  I got them to come once on a Saturday while I took my pet outside but that was after making a special request and was the only time they cleaned during my 2.5 months.The laundry room is decent but does get hot.  The...MoreShow less</t>
+There are fewer than 10 tv stations that are not news or sports, of which there are over 10 but none of the cable stations you would expect.  Plus the volume on my tv didn't work right, the volume it was at when it came on was the loudest it...I will definitely be worth your money to stay somewhere else.  I chose this hotel for my 2.5 month stay because it was the cheapest per night but there are others that are only a couple of dollars more and are probably worth it.  Please note that I regularly stay at Motel 6 and other "cheap" hotels so I did not have unrealistic 5 star expectations.  If you do choose this hotel, try to get a room on the inside of the L (the hotel is an L shape).  The inside gets a wonderful breeze that I would only feel though the cross-throughs and the outside (where I was) gets the evening sun and the doors will literally be too hot to touch.The bed was the worst and completely destroyed my back to where I'm now on pain meds and had to visit a chiropractor.  As others noted, there was an issue with bugs but it was mostly nighttime bugs coming through the huge cracks around the door every night.  While unpacking, from just walking on the floor, my feet got filthy and left prints on the shower floor.There are fewer than 10 tv stations that are not news or sports, of which there are over 10 but none of the cable stations you would expect.  Plus the volume on my tv didn't work right, the volume it was at when it came on was the loudest it would go and if you turned it down, you would have to turn the tv off and on again to get it back up to that volume.  It was an old tv, not a flat screen, and had NO external inputs so I could not connect anything to the tv.  The internet was super slow, even if you paid for the faster speed, and at times I could not even connect to my email or yahoo.I had specifically called ahead and told them I would be in later in the evening and to reserve a room at the back because I had a pet.  When I got there, I was put on the third floor on the front, despite having called when I made the reservation and again when I was on my way.  I asked for a week about moving to another room and they would never move me.  After one week, the air conditioner in my room quit working and they finally moved me to a new room; luckily on the bottom floor but not on the inside of the L.  They would not clean my room since I had a pet and would not leave my pet in a tiny cage all day while I was at work just so they could come in and clean.  I got them to come once on a Saturday while I took my pet outside but that was after making a special request and was the only time they cleaned during my 2.5 months.The laundry room is decent but does get hot.  The washers and dryers each take $2 for a load and the washer drums are half the size of a regular one so it won't hold a complete load, making you use two washers and doubling the price.  There are snack machines in the laundry room but the first time I tried them, the soda machine wouldn't take money at all and the snack machine took my dollars without returning any change, you're better off walking or driving to the Sonic across the street or the Burger King, McDonalds, or CVS on that corner.If I wasn't locked into a reservation, I would have left and I suggest you avoid it altogether.  Even for the price, it's not worth it.MoreShow less</t>
   </si>
   <si>
     <t>June 2014</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Studios - Dallas - Irving, responded to this reviewResponded August 20, 2014</t>
+    <t>Manager_11525, General Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded August 20, 2014</t>
   </si>
   <si>
     <t>Responded August 20, 2014</t>
@@ -743,13 +801,10 @@
   <si>
     <t>I will definitely be worth your money to stay somewhere else.  I chose this hotel for my 2.5 month stay because it was the cheapest per night but there are others that are only a couple of dollars more and are probably worth it.  Please note that I regularly stay at Motel 6 and other "cheap" hotels so I did not have unrealistic 5 star expectations.  If you do choose this hotel, try to get a room on the inside of the L (the hotel is an L shape).  The inside gets a wonderful breeze that I would only feel though the cross-throughs and the outside (where I was) gets the evening sun and the doors will literally be too hot to touch.
 The bed was the worst and completely destroyed my back to where I'm now on pain meds and had to visit a chiropractor.  As others noted, there was an issue with bugs but it was mostly nighttime bugs coming through the huge cracks around the door every night.  While unpacking, from just walking on the floor, my feet got filthy and left prints on the shower floor.
-There are fewer than 10 tv stations that are not news or sports, of which there are over 10 but none of the cable stations you would expect.  Plus the volume on my tv didn't work right, the volume it was at when it came on was the loudest it...I will definitely be worth your money to stay somewhere else.  I chose this hotel for my 2.5 month stay because it was the cheapest per night but there are others that are only a couple of dollars more and are probably worth it.  Please note that I regularly stay at Motel 6 and other "cheap" hotels so I did not have unrealistic 5 star expectations.  If you do choose this hotel, try to get a room on the inside of the L (the hotel is an L shape).  The inside gets a wonderful breeze that I would only feel though the cross-throughs and the outside (where I was) gets the evening sun and the doors will literally be too hot to touch.The bed was the worst and completely destroyed my back to where I'm now on pain meds and had to visit a chiropractor.  As others noted, there was an issue with bugs but it was mostly nighttime bugs coming through the huge cracks around the door every night.  While unpacking, from just walking on the floor, my feet got filthy and left prints on the shower floor.There are fewer than 10 tv stations that are not news or sports, of which there are over 10 but none of the cable stations you would expect.  Plus the volume on my tv didn't work right, the volume it was at when it came on was the loudest it would go and if you turned it down, you would have to turn the tv off and on again to get it back up to that volume.  It was an old tv, not a flat screen, and had NO external inputs so I could not connect anything to the tv.  The internet was super slow, even if you paid for the faster speed, and at times I could not even connect to my email or yahoo.I had specifically called ahead and told them I would be in later in the evening and to reserve a room at the back because I had a pet.  When I got there, I was put on the third floor on the front, despite having called when I made the reservation and again when I was on my way.  I asked for a week about moving to another room and they would never move me.  After one week, the air conditioner in my room quit working and they finally moved me to a new room; luckily on the bottom floor but not on the inside of the L.  They would not clean my room since I had a pet and would not leave my pet in a tiny cage all day while I was at work just so they could come in and clean.  I got them to come once on a Saturday while I took my pet outside but that was after making a special request and was the only time they cleaned during my 2.5 months.The laundry room is decent but does get hot.  The...More</t>
-  </si>
-  <si>
-    <t>Brandon W</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r222439199-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+There are fewer than 10 tv stations that are not news or sports, of which there are over 10 but none of the cable stations you would expect.  Plus the volume on my tv didn't work right, the volume it was at when it came on was the loudest it...I will definitely be worth your money to stay somewhere else.  I chose this hotel for my 2.5 month stay because it was the cheapest per night but there are others that are only a couple of dollars more and are probably worth it.  Please note that I regularly stay at Motel 6 and other "cheap" hotels so I did not have unrealistic 5 star expectations.  If you do choose this hotel, try to get a room on the inside of the L (the hotel is an L shape).  The inside gets a wonderful breeze that I would only feel though the cross-throughs and the outside (where I was) gets the evening sun and the doors will literally be too hot to touch.The bed was the worst and completely destroyed my back to where I'm now on pain meds and had to visit a chiropractor.  As others noted, there was an issue with bugs but it was mostly nighttime bugs coming through the huge cracks around the door every night.  While unpacking, from just walking on the floor, my feet got filthy and left prints on the shower floor.There are fewer than 10 tv stations that are not news or sports, of which there are over 10 but none of the cable stations you would expect.  Plus the volume on my tv didn't work right, the volume it was at when it came on was the loudest it would go and if you turned it down, you would have to turn the tv off and on again to get it back up to that volume.  It was an old tv, not a flat screen, and had NO external inputs so I could not connect anything to the tv.  The internet was super slow, even if you paid for the faster speed, and at times I could not even connect to my email or yahoo.I had specifically called ahead and told them I would be in later in the evening and to reserve a room at the back because I had a pet.  When I got there, I was put on the third floor on the front, despite having called when I made the reservation and again when I was on my way.  I asked for a week about moving to another room and they would never move me.  After one week, the air conditioner in my room quit working and they finally moved me to a new room; luckily on the bottom floor but not on the inside of the L.  They would not clean my room since I had a pet and would not leave my pet in a tiny cage all day while I was at work just so they could come in and clean.  I got them to come once on a Saturday while I took my pet outside but that was after making a special request and was the only time they cleaned during my 2.5 months.The laundry room is decent but does get hot.  The washers and dryers each take $2 for a load and the washer drums are half the size of a regular one so it won't hold a complete load, making you use two washers and doubling the price.  There are snack machines in the laundry room but the first time I tried them, the soda machine wouldn't take money at all and the snack machine took my dollars without returning any change, you're better off walking or driving to the Sonic across the street or the Burger King, McDonalds, or CVS on that corner.If I wasn't locked into a reservation, I would have left and I suggest you avoid it altogether.  Even for the price, it's not worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r222439199-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>222439199</t>
@@ -776,10 +831,7 @@
 Overall, the hotel staff was great, but the room cleanliness made me seriously wonder how the hotel stays...We stayed for 2 months.  The front desk staff is exceptional, and some of the best hotel staff I have seen from numerous hotel stays.  Our primary reason for staying at this hotel is it looked clean, and was priced below competitors.  The room cleanliness was seriously disappointing.  We had large stains on our carpets when we moved in, and the wood laminate floor appeared to have never been cleaned.  During our two month stay, the hotel room was never vacuumed, and the floors were never cleaned.  I also don't think the comforter has ever been washed.  We would occasionally spill crumbs on the carpet, and week after week, notice they had not been vacuumed (once they were pushed under the bed).  The wood laminate got really dirty, and we would clean it ourselves with wipes. The air conditioner also had mold growing in it that you could see through the vents, but by the time we noticed that, we had already formed our opinion of this hotel. This hotel also has a serious bug problem.  We would find live crickets, beetles, and other bugs in our room multiple times a week.  Our last week here we found 5-6 crickets in our room. I'm not sure where they come from as our door was only opened a few seconds at a time. Overall, the hotel staff was great, but the room cleanliness made me seriously wonder how the hotel stays in business. We tried three different rooms during our stay, and each one had similar problems.As a side note, the WIFI speed here is less than 1 mbps (about .75 most days), so if you plan on using the internet much, you should definitely get another hotel.More</t>
   </si>
   <si>
-    <t>smw1972</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r221099365-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r221099365-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>221099365</t>
@@ -797,10 +849,7 @@
     <t>Very dirty room...they cancled my reservation because I wasnt there before 8:30pm and I didn't make the resevation until almost 9pm.  The carpert waz disgusting...I had to mop the kitchen and bathroom floors.More</t>
   </si>
   <si>
-    <t>Don M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r214922828-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r214922828-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>214922828</t>
@@ -818,7 +867,7 @@
     <t>May 2014</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Studios - Dallas - Irving, responded to this reviewResponded July 16, 2014</t>
+    <t>Manager_11525, General Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded July 16, 2014</t>
   </si>
   <si>
     <t>Responded July 16, 2014</t>
@@ -827,10 +876,7 @@
     <t>Based upon my excellent stay at the Crossland Economy Studios in Houston (see my other review), I decided to try them again at their Irving, TX location.Overall, everything was fine.  But, I felt they could've done a lot more.  The room felt a little more dirty but interestingly the bathroom was cleaner.  All the amenities were as per normal Crossland Economy and just fine.  I stayed on the first floor, which was fine.  Cable was standard minimal.  WiFi was excellent.For location, you definitely need a car.  Though, you're within 5 minutes walking distance to McDonalds, CVS, Burger King.  There's the Irving Mall nearby but that' an 8 minute drive.Staff are friendly.  Please read my other Crossland Economy review for more details.  What's there applies here (except for any differences noted).More</t>
   </si>
   <si>
-    <t>AJames24</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r195098910-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r195098910-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>195098910</t>
@@ -848,7 +894,7 @@
     <t>February 2014</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Studios - Dallas - Irving, responded to this reviewResponded February 26, 2014</t>
+    <t>Manager_11525, General Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded February 26, 2014</t>
   </si>
   <si>
     <t>Responded February 26, 2014</t>
@@ -857,10 +903,7 @@
     <t>We booked this hotel simply looking for a place to crash for a few hours before an early morning flight.  I booked it quickly through Travelocity on my smart phone and did not do my normal due diligence...terrible mistake!  Trust the other reviews...there were 3 cockroaches in my room and I left the bathroom and kitchenette lights on all night to keep others away.  The room also had a definite smell and someone else in my party had small black hairs all over their bathroom.Shoot for a 3 star or definitely don't get a 2 star "express deal" or "secret hotel"...There are other 2 stars that would be leaps and bounds above this one.More</t>
   </si>
   <si>
-    <t>Navinjunior</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r187590946-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r187590946-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>187590946</t>
@@ -875,7 +918,7 @@
     <t>Management,  please don't tell me how sorry you are about my experience.  Just fix the problem. By fix, I mean hire a reputable exterminator and close this place until you've irradiated your MASSIVE bedbug problem. I know for a fact that housekeeping and other customers have made you aware of it several times. If I bring bedbugs back to my home, my lawer will send you the bill.The only ratings sbove 1 are for location (out of your control) and for the poor, mortified, but very courteous front desk girl. Give her a raise.MoreShow less</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Studios - Dallas - Irving, responded to this reviewResponded December 18, 2013</t>
+    <t>Manager_11525, General Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded December 18, 2013</t>
   </si>
   <si>
     <t>Responded December 18, 2013</t>
@@ -884,10 +927,7 @@
     <t>Management,  please don't tell me how sorry you are about my experience.  Just fix the problem. By fix, I mean hire a reputable exterminator and close this place until you've irradiated your MASSIVE bedbug problem. I know for a fact that housekeeping and other customers have made you aware of it several times. If I bring bedbugs back to my home, my lawer will send you the bill.The only ratings sbove 1 are for location (out of your control) and for the poor, mortified, but very courteous front desk girl. Give her a raise.More</t>
   </si>
   <si>
-    <t>1947Richard1965</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r185985682-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r185985682-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>185985682</t>
@@ -905,7 +945,7 @@
     <t>November 2013</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Studios - Dallas - Irving, responded to this reviewResponded November 29, 2013</t>
+    <t>Manager_11525, General Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded November 29, 2013</t>
   </si>
   <si>
     <t>Responded November 29, 2013</t>
@@ -914,10 +954,7 @@
     <t>We booked a two week stay at @$40 a nite, the phone did not work but the cell phone carried the calls.  The internet via free wifi was very slow unless you wanted to pay $5 a day or $15 a week for some higher cost slow anyway faster Wifi.  The shower was very clean and the bed was good for sleeping but bring ear plugs for a quiet sleep.  TV looked a lost till we realized that the channels did not start till 18 but we got some news a road weather conditions.  Would stay again but check room location and room conditions before giving them credit card.More</t>
   </si>
   <si>
-    <t>Kaleigh S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r183837833-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r183837833-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>183837833</t>
@@ -936,7 +973,7 @@
     <t>October 2013</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Studios - Dallas - Irving, responded to this reviewResponded November 8, 2013</t>
+    <t>Manager_11525, General Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded November 8, 2013</t>
   </si>
   <si>
     <t>Responded November 8, 2013</t>
@@ -946,10 +983,7 @@
 All in all, you get what you pay for. I paid a cheap price and wasn't expecting much, so it's hard to be disappointed. I wouldn't pay more than $45 a night for a room here, though. If you're strapped for cash and need a decent place to stay, this is your...I stayed in Dallas to catch a direct flight to PA to visit my s/o on Oct 31. Used hotwire to book the hotel. It's pretty close to the airport, and it was cheap. The rooms are decent size, and it was clean as well, although the air smelled of stale cigarette smoke. The kitchenette and bathroom were nice to have in room. The beds were not terribly comfortable though and the room decor is outdated. I had a first floor room, and at 11pm, shortly after I fell asleep, someone came and banged on my door, when I looked, no one was there. I called the front desk person and her reply was "maybe it was trick or treaters". At a hotel at 11 o'clock at night? I doubt it, even if it was Halloween night. Regardless, she said she'd come check it out. The other problem I had is that someone was smoking somewhere and the smell poured into my room. I'm not a smoker, and I know I'm sensitive to the smell, but I think that if someone's smoking, I shouldn't have to smell it. All in all, you get what you pay for. I paid a cheap price and wasn't expecting much, so it's hard to be disappointed. I wouldn't pay more than $45 a night for a room here, though. If you're strapped for cash and need a decent place to stay, this is your place. Otherwise, spend a little more somewhere else.More</t>
   </si>
   <si>
-    <t>Tellit2myheart</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r180114490-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r180114490-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>180114490</t>
@@ -964,7 +998,7 @@
     <t>Went for a cowboys and broncos game ...looking to save $$ so .......Love my hotwire when I book my hotels, but this one was the worse place ever ...it ranked 2 stars on hotwire...I was looking to save $$ and well I should have payed more for clean and comfortable.  We arrive saturday Oct 5,2013 outside looks descent looks great, as soon as I opened my door, the beds were not even made up, mattress were exposed, it smelled like a dirty old smoker drunkards place. I had to call front office to have beds made up, it was 6 o clockwhen we checked in  Walls were dirty in the restroom, we were afraid to touch just about anything in that room, YUCK ...  my husband woke up several times during the night for people out in the hall way arguing... okay back to the beds....HARD and UNCOMFORTABLE ...smelly, we went to sams club bought ourselves a blanket to sleep on ...my husband toughed it out on the other bed only to find himself smelling himself with disgust ...he could smell the oder and  he is a smoker...it was bad bad bad.MoreShow less</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Studios - Dallas - Irving, responded to this reviewResponded October 10, 2013</t>
+    <t>Manager_11525, General Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded October 10, 2013</t>
   </si>
   <si>
     <t>Responded October 10, 2013</t>
@@ -973,10 +1007,250 @@
     <t>Went for a cowboys and broncos game ...looking to save $$ so .......Love my hotwire when I book my hotels, but this one was the worse place ever ...it ranked 2 stars on hotwire...I was looking to save $$ and well I should have payed more for clean and comfortable.  We arrive saturday Oct 5,2013 outside looks descent looks great, as soon as I opened my door, the beds were not even made up, mattress were exposed, it smelled like a dirty old smoker drunkards place. I had to call front office to have beds made up, it was 6 o clockwhen we checked in  Walls were dirty in the restroom, we were afraid to touch just about anything in that room, YUCK ...  my husband woke up several times during the night for people out in the hall way arguing... okay back to the beds....HARD and UNCOMFORTABLE ...smelly, we went to sams club bought ourselves a blanket to sleep on ...my husband toughed it out on the other bed only to find himself smelling himself with disgust ...he could smell the oder and  he is a smoker...it was bad bad bad.More</t>
   </si>
   <si>
-    <t>gary w</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r139478990-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r179819771-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>179819771</t>
+  </si>
+  <si>
+    <t>10/05/2013</t>
+  </si>
+  <si>
+    <t>Don't stay here, unless you like sharing a room with roaches</t>
+  </si>
+  <si>
+    <t>This place is nasty, unclean, horrible. I wound up here via Priceline name your own price. Of which was recommended to me from an employee from another hotel suggested I do to get a good rate. BAD IDEA! I wish I would have never tried to save a few dollars. Crossroads Hotel is horrible. Roaches in the room, when we first got here the toilet seat was broken, no telephone in the room, lamps did not work, no iron and board. Then they gave me a room right above the electrical room so it was noisy and non-relaxing the entire 7 days we stayed here. Management had bad things to say about Priceline, it was just not a good experience and I am glad we are finally leaving this roach motel today. DO NOT COME HERE.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded October 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2013</t>
+  </si>
+  <si>
+    <t>This place is nasty, unclean, horrible. I wound up here via Priceline name your own price. Of which was recommended to me from an employee from another hotel suggested I do to get a good rate. BAD IDEA! I wish I would have never tried to save a few dollars. Crossroads Hotel is horrible. Roaches in the room, when we first got here the toilet seat was broken, no telephone in the room, lamps did not work, no iron and board. Then they gave me a room right above the electrical room so it was noisy and non-relaxing the entire 7 days we stayed here. Management had bad things to say about Priceline, it was just not a good experience and I am glad we are finally leaving this roach motel today. DO NOT COME HERE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r178010550-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>178010550</t>
+  </si>
+  <si>
+    <t>09/21/2013</t>
+  </si>
+  <si>
+    <t>Horrible!</t>
+  </si>
+  <si>
+    <t>Stayed here back in April and finally getting around to writing a review. I booked this stay through Priceline bidding. Upon arrival I was initially assigned to a room that wouldn't be fit for anyone. The condition of the carpet, bed and bathroom were horrible. It smelled and the bathroom had hair behind the toilet. After complaining to the front desk person I was upgraded to a "better" room. Carpet was still in bad condition but the rest of the room was somewhat better. Bathroom still wasn't as clean as it should be. Didn't feel like switching rooms again and doubted whether there were better rooms so I went to the front desk again and asked for some cleaning supplies. The front desk attendant came to the room and cleaned the bathroom himself. He apologized and said they were having housekeeping issues. This experience has caused me to never again bid for a 2* in the Irving/Las Colinas area using Priceline in fear that this "hotel" may come up as the choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded September 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here back in April and finally getting around to writing a review. I booked this stay through Priceline bidding. Upon arrival I was initially assigned to a room that wouldn't be fit for anyone. The condition of the carpet, bed and bathroom were horrible. It smelled and the bathroom had hair behind the toilet. After complaining to the front desk person I was upgraded to a "better" room. Carpet was still in bad condition but the rest of the room was somewhat better. Bathroom still wasn't as clean as it should be. Didn't feel like switching rooms again and doubted whether there were better rooms so I went to the front desk again and asked for some cleaning supplies. The front desk attendant came to the room and cleaned the bathroom himself. He apologized and said they were having housekeeping issues. This experience has caused me to never again bid for a 2* in the Irving/Las Colinas area using Priceline in fear that this "hotel" may come up as the choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r169519320-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>169519320</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>Worst Ever !!</t>
+  </si>
+  <si>
+    <t>I only stayed there for an hour before i could die of bad smell in the room..everything looked so dirty in the room..  I wasted 40 bucks on this ever sucking hotel.. The lady at reception was extremely rude probably because I was asian.. Guys!!! for 5 bucks more there are thousands better hotels/motels out there.. Will never ever go there again.. Bye bye forever</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r165609028-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>165609028</t>
+  </si>
+  <si>
+    <t>06/28/2013</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>I read the bad review and it sounded like the different hotel I stayed in Mississippi.  This location isn't the best but not too bad.  Compared to the last hotel I was at this place is a good deal.  the carpets is average, bathroom and small kitichen was clean.  They supply enough pots, pans, dishes, coffee cups for two people.  You will have to clean by hand or eat out.  I chose to cook here.  Wasn't as easy as being at home but it can be done.  Tv is limited to basic Cable, about 25 channels and the internet isn't the fastest but fast enough to watch movies over the web.  Coffee maker didn't work and was replace with new one.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded July 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2013</t>
+  </si>
+  <si>
+    <t>I read the bad review and it sounded like the different hotel I stayed in Mississippi.  This location isn't the best but not too bad.  Compared to the last hotel I was at this place is a good deal.  the carpets is average, bathroom and small kitichen was clean.  They supply enough pots, pans, dishes, coffee cups for two people.  You will have to clean by hand or eat out.  I chose to cook here.  Wasn't as easy as being at home but it can be done.  Tv is limited to basic Cable, about 25 channels and the internet isn't the fastest but fast enough to watch movies over the web.  Coffee maker didn't work and was replace with new one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r159852432-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>159852432</t>
+  </si>
+  <si>
+    <t>05/06/2013</t>
+  </si>
+  <si>
+    <t>Review of Crossland</t>
+  </si>
+  <si>
+    <t>I have been staying at Crossland for almost two months now for business.  I have always been treated very well. The staff here is awesome, they take care of you like you are family.  I would recommend staying here if you need to stay for one night or for months.  Anything I have needed they have taken care of and even recommend great places to go and eat. If you are ever in the Irving area and need a place to stay I would suggest you stay here at Crossland.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r157370994-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>157370994</t>
+  </si>
+  <si>
+    <t>04/10/2013</t>
+  </si>
+  <si>
+    <t>Nasty Horrible Hotel One Star at best</t>
+  </si>
+  <si>
+    <t>I can tell you that the review above must have been written by an employee.   I stayed at this hotel.   It is a one star at best.  The room they attempted to give me was yellow cigarette stained walls, stained horrible carpets, old dirty bedspread, small hard uncomfortable bed, burns on the counters and floors.    What a joke.  When I went to change rooms I was told by the first person that it was the only room available.  I went back up to it, then returned to the lobby.   There were many rooms available, you can tell because the curtains are open, and the rooms are vacant.   So I got  a second room.   This one not quite as nasty, but still stained carpets, dirty old bedding, non working elevator, uncomfortable small bed.   Holes in the walls patched but not painted, disgusting environment.    I would not stay here again.   I would not bring children here.   This place is terrible.   PeriodMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>DFWCC, Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded April 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2013</t>
+  </si>
+  <si>
+    <t>I can tell you that the review above must have been written by an employee.   I stayed at this hotel.   It is a one star at best.  The room they attempted to give me was yellow cigarette stained walls, stained horrible carpets, old dirty bedspread, small hard uncomfortable bed, burns on the counters and floors.    What a joke.  When I went to change rooms I was told by the first person that it was the only room available.  I went back up to it, then returned to the lobby.   There were many rooms available, you can tell because the curtains are open, and the rooms are vacant.   So I got  a second room.   This one not quite as nasty, but still stained carpets, dirty old bedding, non working elevator, uncomfortable small bed.   Holes in the walls patched but not painted, disgusting environment.    I would not stay here again.   I would not bring children here.   This place is terrible.   PeriodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r156748685-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>156748685</t>
+  </si>
+  <si>
+    <t>04/05/2013</t>
+  </si>
+  <si>
+    <t>Good place for short stay</t>
+  </si>
+  <si>
+    <t>Friendly staff. Decent location with average style restaurants nearby. Room isn't overly large but it is clean. Kitchen shows a little wear but clean. Shower and bathroom clean also. Bed is firm. Doors open to the outside but the area seems pretty safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>DFWCC, Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded April 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2013</t>
+  </si>
+  <si>
+    <t>Friendly staff. Decent location with average style restaurants nearby. Room isn't overly large but it is clean. Kitchen shows a little wear but clean. Shower and bathroom clean also. Bed is firm. Doors open to the outside but the area seems pretty safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r153404062-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>153404062</t>
+  </si>
+  <si>
+    <t>02/28/2013</t>
+  </si>
+  <si>
+    <t>Why you should stay at this hotel</t>
+  </si>
+  <si>
+    <t>People here are quiet.. Dont bother you if you dont bother them..and the workers get you anything you need.  the workers also go out of you way to get what you need. And there's cable and wifi. Would recommend staying to anyone who needs a home like feeling o your trip out of town.MoreShow less</t>
+  </si>
+  <si>
+    <t>DFWCC, Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded March 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2013</t>
+  </si>
+  <si>
+    <t>People here are quiet.. Dont bother you if you dont bother them..and the workers get you anything you need.  the workers also go out of you way to get what you need. And there's cable and wifi. Would recommend staying to anyone who needs a home like feeling o your trip out of town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r152608233-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>152608233</t>
+  </si>
+  <si>
+    <t>02/20/2013</t>
+  </si>
+  <si>
+    <t>a great stay!</t>
+  </si>
+  <si>
+    <t>I had a great time at this hotel and it definitely worthy of an extended stay or a quick stay. I have to say that for the price you can't go wrong.  good staff and and quick access to anything that is needed as far as commodities go. I will definitely be staying at this hotel again or hopefully I can find something similar if I'm not in Texas!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>DFWCC, Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded February 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2013</t>
+  </si>
+  <si>
+    <t>I had a great time at this hotel and it definitely worthy of an extended stay or a quick stay. I have to say that for the price you can't go wrong.  good staff and and quick access to anything that is needed as far as commodities go. I will definitely be staying at this hotel again or hopefully I can find something similar if I'm not in Texas!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r146697261-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>146697261</t>
+  </si>
+  <si>
+    <t>12/03/2012</t>
+  </si>
+  <si>
+    <t>crossland</t>
+  </si>
+  <si>
+    <t>The rooms are clean and comfortable and the pricing reasonable. The guys at the desk were mature and very hospitable.The TV in the room is old. Great experience. This is definitely a two thumbs up.A . Johnson.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>DFWCC, Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded December 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2012</t>
+  </si>
+  <si>
+    <t>The rooms are clean and comfortable and the pricing reasonable. The guys at the desk were mature and very hospitable.The TV in the room is old. Great experience. This is definitely a two thumbs up.A . Johnson.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r139478990-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>139478990</t>
@@ -994,7 +1268,7 @@
     <t>July 2012</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Studios - Dallas - Irving, responded to this reviewResponded September 7, 2012</t>
+    <t>Manager_11525, General Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded September 7, 2012</t>
   </si>
   <si>
     <t>Responded September 7, 2012</t>
@@ -1003,27 +1277,36 @@
     <t>The staff here at Crossland Economy Studios Dallas,Irvng, Tx., are very Professional.The housing-keeping group are expert cleaner and always polite. And I just want to thank the staff Rodney an Robert for a wonderful stay.More</t>
   </si>
   <si>
-    <t>Heavnly</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r138583957-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r138583957-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>138583957</t>
   </si>
   <si>
-    <t>david b</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r138573938-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>08/27/2012</t>
+  </si>
+  <si>
+    <t>They are the best hotel I ever stayed in n the people there is great n the worker.</t>
+  </si>
+  <si>
+    <t>I love going back to that hotel.The staff there is excellent n so are the people that stays there n also I would tell anybody to go stay there.The management is also excellent too.I haven't had any problems staying there at that hotel.So I recommend anybody to try the hotel cause it is a great hotel.I give it 5 thumbs up.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at HomeTowne Suites Dallas – Irving, responded to this reviewResponded August 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2012</t>
+  </si>
+  <si>
+    <t>I love going back to that hotel.The staff there is excellent n so are the people that stays there n also I would tell anybody to go stay there.The management is also excellent too.I haven't had any problems staying there at that hotel.So I recommend anybody to try the hotel cause it is a great hotel.I give it 5 thumbs up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r138573938-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>138573938</t>
   </si>
   <si>
-    <t>08/27/2012</t>
-  </si>
-  <si>
     <t>Great Location</t>
   </si>
   <si>
@@ -1033,19 +1316,10 @@
     <t>October 2011</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Studios - Dallas - Irving, responded to this reviewResponded August 29, 2012</t>
-  </si>
-  <si>
-    <t>Responded August 29, 2012</t>
-  </si>
-  <si>
     <t>The accommodation is fine for one who needs extended stay for a short while. The pricing is reasonable an there is a stove and microwave.The staff are particularly friendly  and accommodating especially  especially Rodney  and Robert.Rodney and Robert are very professional and definitely have very good customer service people skills. Their hospitality made me recommend a few people to this particular  location.There are two particular workers who are totally disrespectful and unprofessional in dealing or talking to clients though. I will not name names.More</t>
   </si>
   <si>
-    <t>ben e</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r130019354-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r130019354-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>130019354</t>
@@ -1072,10 +1346,7 @@
     <t>The first room they give me smelled like urine so bad I decided it was way to stinky to come back to everyday. It smelled like a dog pissed somewhere and the cleaning staff never bothered to clean it up. The next room they gave me was room 310 and it had bed bugs. I put them in a bag and gave it to the staff. They then gave me my third room which smelled also, but I lived with it for the rest of the week. If you choose to stay here check the box springs for bed bugs and buy a couple air fresheners!!More</t>
   </si>
   <si>
-    <t>1travels0me</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r116299257-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r116299257-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>116299257</t>
@@ -1096,10 +1367,7 @@
     <t>These accommodations were fine and affordable.  The room was clean and the A/C worked...and good A/C was definitely needed if you've heard about the recent temps in the Dallas area.  The room had a kitchenette and utensils, which weren't needed, but the microwave and fridge came in handy.The employees were helpful, although they did not have my reservation when I checked in, but that could have been the booking agent that I used.  It was corrected relatively quickly, however.  It's extended stay, so you will have to request any additional towels if it's not a cleaning day.  The bed was very firm, well, hard, but that might work for some...it's just a matter of preference.  There is no pool that I saw, if that matters.The location is on a main thoroughfare between Dallas and Ft. Worth and it's close enough to freeways, but you will need an automobile.  It's fairly far away from most attractions, but it's close to plenty of restaurants.  The area is residential with a mix of commercial and it seemed safe.  It's not 5 stars, but it's a little better than your average motel.More</t>
   </si>
   <si>
-    <t>BooObama</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r61045419-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r61045419-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>61045419</t>
@@ -1117,10 +1385,7 @@
     <t>March 2010</t>
   </si>
   <si>
-    <t>hbo123</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r52948563-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r52948563-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>52948563</t>
@@ -1138,10 +1403,7 @@
     <t>December 2009</t>
   </si>
   <si>
-    <t>OrlandoTraveler123</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r23602372-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r23602372-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>23602372</t>
@@ -1159,10 +1421,7 @@
     <t>December 2008</t>
   </si>
   <si>
-    <t>priborges</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r23324434-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r23324434-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>23324434</t>
@@ -1180,10 +1439,7 @@
     <t>This place is disgusting. I would not stay there again or in any of hotel of this network, even if paid for. They made a mess with our check in and never asked for our credit cards. Then, when day we go to San Antonio and when we arrive, our stuff has been removed from the room. We were then shown to some of it (most was missing) and it was spread all over their laundry room, with things moved from one bag to the other, other stuff mixed with dirty laundry and several items missing. They returned some of the stuff several days later, but the most dear and expensive was never seen again. They thought we would not come back from San Antonio and diveded the loot among themselves. Up to this day we did not get a penny back from them and it seems it will be long before we do.More</t>
   </si>
   <si>
-    <t>sportstravelerTexas</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r21304738-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r21304738-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>21304738</t>
@@ -1204,10 +1460,7 @@
     <t>I booked the room through Hotwire for $26 a night, so based on this I would say that our stay more than met our expectations. The grounds were clean and well maintaned and the check-in staff were friendly and VERY helpful. The room was clean, spacious,  comfortable and appeared to have been painted fairly recently.  The furniture was not the best quality and was a little scratched up, but otherwise everything was in working order. The mattress was a little hard (I have hip problems and arthritis) but in good shape. As were the bedding, curtains, and carpet. We did not use the kitchenette, but everything seemed clean and in good shape.  If you are used to a more upscale environment, then you might not like this hotel; but if you want a good place to sleep and shower, and maybe cook a small meal, then I think you will enjoy your stay here.More</t>
   </si>
   <si>
-    <t>katielou80</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r7190819-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r7190819-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>7190819</t>
@@ -1225,10 +1478,7 @@
     <t>March 2007</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r1384460-Crossland_Studios_Dallas_Irving-Irving_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109064-r1384460-HomeTowne_Suites_Dallas_Irving-Irving_Texas.html</t>
   </si>
   <si>
     <t>1384460</t>
@@ -1748,59 +1998,55 @@
       <c r="A2" t="n">
         <v>36630</v>
       </c>
-      <c r="B2" t="n">
-        <v>127598</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
         <v>2</v>
       </c>
-      <c r="N2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1808,7 +2054,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1821,47 +2067,49 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
         <v>60</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
       <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1869,59 +2117,57 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36630</v>
       </c>
-      <c r="B4" t="n">
-        <v>127599</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" t="s">
-        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>1</v>
@@ -1932,64 +2178,58 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36630</v>
       </c>
-      <c r="B5" t="n">
-        <v>127600</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>75</v>
       </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>78</v>
-      </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1997,139 +2237,125 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36630</v>
       </c>
-      <c r="B6" t="n">
-        <v>2745</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>82</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s">
         <v>83</v>
-      </c>
-      <c r="J6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="s">
-        <v>87</v>
-      </c>
-      <c r="O6" t="s">
-        <v>88</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36630</v>
       </c>
-      <c r="B7" t="n">
-        <v>127601</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
         <v>90</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="O7" t="s">
         <v>91</v>
       </c>
-      <c r="J7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>95</v>
-      </c>
-      <c r="O7" t="s">
-        <v>88</v>
-      </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>96</v>
-      </c>
-      <c r="X7" t="s">
-        <v>97</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -2142,46 +2368,46 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>88</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>1</v>
@@ -2190,141 +2416,137 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="X8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36630</v>
       </c>
-      <c r="B9" t="n">
-        <v>28420</v>
-      </c>
-      <c r="C9" t="s">
-        <v>107</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>107</v>
+      </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36630</v>
       </c>
-      <c r="B10" t="n">
-        <v>127602</v>
-      </c>
-      <c r="C10" t="s">
-        <v>114</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>121</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
@@ -2337,98 +2559,100 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>88</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36630</v>
       </c>
-      <c r="B12" t="n">
-        <v>127603</v>
-      </c>
-      <c r="C12" t="s">
-        <v>128</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2439,831 +2663,753 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>135</v>
-      </c>
-      <c r="X12" t="s">
-        <v>136</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36630</v>
       </c>
-      <c r="B13" t="n">
-        <v>43579</v>
-      </c>
-      <c r="C13" t="s">
-        <v>138</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="J13" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>3</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>144</v>
-      </c>
-      <c r="X13" t="s">
-        <v>145</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36630</v>
       </c>
-      <c r="B14" t="n">
-        <v>127604</v>
-      </c>
-      <c r="C14" t="s">
-        <v>147</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s">
-        <v>88</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>153</v>
-      </c>
-      <c r="X14" t="s">
-        <v>154</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36630</v>
       </c>
-      <c r="B15" t="n">
-        <v>127605</v>
-      </c>
-      <c r="C15" t="s">
-        <v>156</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>163</v>
-      </c>
-      <c r="X15" t="s">
-        <v>164</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36630</v>
       </c>
-      <c r="B16" t="n">
-        <v>127606</v>
-      </c>
-      <c r="C16" t="s">
-        <v>166</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>173</v>
-      </c>
-      <c r="X16" t="s">
-        <v>174</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36630</v>
       </c>
-      <c r="B17" t="n">
-        <v>127607</v>
-      </c>
-      <c r="C17" t="s">
-        <v>176</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="J17" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="K17" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="O17" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>1</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>183</v>
-      </c>
-      <c r="X17" t="s">
-        <v>184</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36630</v>
       </c>
-      <c r="B18" t="n">
-        <v>127608</v>
-      </c>
-      <c r="C18" t="s">
-        <v>186</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="J18" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="K18" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>164</v>
+      </c>
+      <c r="X18" t="s">
+        <v>165</v>
+      </c>
       <c r="Y18" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36630</v>
       </c>
-      <c r="B19" t="n">
-        <v>127609</v>
-      </c>
-      <c r="C19" t="s">
-        <v>193</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="K19" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="L19" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" t="n">
-        <v>3</v>
-      </c>
-      <c r="S19" t="n">
         <v>2</v>
       </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="X19" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="Y19" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36630</v>
       </c>
-      <c r="B20" t="n">
-        <v>127610</v>
-      </c>
-      <c r="C20" t="s">
-        <v>201</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="O20" t="s">
-        <v>79</v>
-      </c>
-      <c r="P20" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="X20" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="Y20" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36630</v>
       </c>
-      <c r="B21" t="n">
-        <v>127611</v>
-      </c>
-      <c r="C21" t="s">
-        <v>211</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="J21" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="K21" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>188</v>
+      </c>
+      <c r="O21" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
         <v>4</v>
       </c>
-      <c r="N21" t="s">
-        <v>217</v>
-      </c>
-      <c r="O21" t="s">
-        <v>121</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="X21" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="Y21" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36630</v>
       </c>
-      <c r="B22" t="n">
-        <v>127612</v>
-      </c>
-      <c r="C22" t="s">
-        <v>221</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="J22" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="K22" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="L22" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>197</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
       <c r="R22" t="n">
         <v>5</v>
       </c>
-      <c r="S22" t="n">
-        <v>3</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="X22" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="Y22" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36630</v>
       </c>
-      <c r="B23" t="n">
-        <v>127613</v>
-      </c>
-      <c r="C23" t="s">
-        <v>230</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="J23" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="O23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
       </c>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="X23" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="Y23" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36630</v>
       </c>
-      <c r="B24" t="n">
-        <v>30491</v>
-      </c>
-      <c r="C24" t="s">
-        <v>240</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="J24" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="K24" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
-      </c>
-      <c r="N24" t="s">
-        <v>246</v>
-      </c>
-      <c r="O24" t="s">
-        <v>54</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
       <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
         <v>5</v>
@@ -3271,52 +3417,44 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>237</v>
-      </c>
-      <c r="X24" t="s">
-        <v>238</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36630</v>
       </c>
-      <c r="B25" t="n">
-        <v>127614</v>
-      </c>
-      <c r="C25" t="s">
-        <v>248</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="J25" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="L25" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
@@ -3324,223 +3462,209 @@
       <c r="N25" t="s"/>
       <c r="O25" t="s"/>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="X25" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="Y25" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36630</v>
       </c>
-      <c r="B26" t="n">
-        <v>34636</v>
-      </c>
-      <c r="C26" t="s">
-        <v>255</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="J26" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="K26" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3</v>
-      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>4</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="X26" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="Y26" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36630</v>
       </c>
-      <c r="B27" t="n">
-        <v>127615</v>
-      </c>
-      <c r="C27" t="s">
-        <v>265</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="J27" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="K27" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="L27" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="O27" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="X27" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="Y27" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36630</v>
       </c>
-      <c r="B28" t="n">
-        <v>127616</v>
-      </c>
-      <c r="C28" t="s">
-        <v>275</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="J28" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="K28" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s"/>
       <c r="O28" t="s"/>
       <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
         <v>3</v>
       </c>
-      <c r="Q28" t="n">
-        <v>1</v>
-      </c>
       <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
         <v>3</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
@@ -3550,73 +3674,63 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="X28" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="Y28" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36630</v>
       </c>
-      <c r="B29" t="n">
-        <v>127617</v>
-      </c>
-      <c r="C29" t="s">
-        <v>284</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="J29" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="K29" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>254</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
         <v>3</v>
       </c>
-      <c r="N29" t="s">
-        <v>290</v>
-      </c>
-      <c r="O29" t="s">
-        <v>79</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
         <v>3</v>
@@ -3625,274 +3739,256 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="X29" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="Y29" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36630</v>
       </c>
-      <c r="B30" t="n">
-        <v>127618</v>
-      </c>
-      <c r="C30" t="s">
-        <v>294</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="J30" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="K30" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="O30" t="s">
-        <v>88</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S30" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="X30" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="Y30" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36630</v>
       </c>
-      <c r="B31" t="n">
-        <v>127619</v>
-      </c>
-      <c r="C31" t="s">
-        <v>304</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="J31" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="K31" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
-      <c r="N31" t="s">
-        <v>300</v>
-      </c>
-      <c r="O31" t="s">
-        <v>79</v>
-      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S31" t="n">
         <v>1</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="X31" t="s">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c r="Y31" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36630</v>
       </c>
-      <c r="B32" t="n">
-        <v>127620</v>
-      </c>
-      <c r="C32" t="s">
-        <v>313</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="J32" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="K32" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="L32" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="O32" t="s">
-        <v>88</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
       <c r="R32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="X32" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="Y32" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36630</v>
       </c>
-      <c r="B33" t="n">
-        <v>127621</v>
-      </c>
-      <c r="C33" t="s">
-        <v>323</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>325</v>
-      </c>
-      <c r="J33" t="s"/>
-      <c r="K33" t="s"/>
-      <c r="L33" t="s"/>
-      <c r="M33" t="s"/>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
+        <v>281</v>
+      </c>
+      <c r="J33" t="s">
+        <v>282</v>
+      </c>
+      <c r="K33" t="s">
+        <v>283</v>
+      </c>
+      <c r="L33" t="s">
+        <v>284</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>285</v>
+      </c>
+      <c r="O33" t="s">
+        <v>83</v>
+      </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
@@ -3902,139 +3998,136 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
+      <c r="W33" t="s">
+        <v>286</v>
+      </c>
+      <c r="X33" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36630</v>
       </c>
-      <c r="B34" t="n">
-        <v>77482</v>
-      </c>
-      <c r="C34" t="s">
-        <v>326</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="J34" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="K34" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="L34" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
-        <v>332</v>
-      </c>
-      <c r="O34" t="s">
-        <v>88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="X34" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="Y34" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36630</v>
       </c>
-      <c r="B35" t="n">
-        <v>127622</v>
-      </c>
-      <c r="C35" t="s">
-        <v>336</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="J35" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="K35" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="O35" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R35" t="n">
         <v>4</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
@@ -4044,68 +4137,68 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="X35" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="Y35" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36630</v>
       </c>
-      <c r="B36" t="n">
-        <v>127623</v>
-      </c>
-      <c r="C36" t="s">
-        <v>346</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="J36" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="K36" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>311</v>
+      </c>
+      <c r="O36" t="s">
+        <v>91</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
         <v>4</v>
       </c>
-      <c r="N36" t="s">
-        <v>352</v>
-      </c>
-      <c r="O36" t="s">
-        <v>88</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
@@ -4114,134 +4207,130 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>312</v>
+      </c>
+      <c r="X36" t="s">
+        <v>313</v>
+      </c>
       <c r="Y36" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36630</v>
       </c>
-      <c r="B37" t="n">
-        <v>127624</v>
-      </c>
-      <c r="C37" t="s">
-        <v>354</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="J37" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="K37" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="L37" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>311</v>
+      </c>
+      <c r="O37" t="s">
+        <v>83</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
         <v>3</v>
       </c>
-      <c r="N37" t="s">
-        <v>360</v>
-      </c>
-      <c r="O37" t="s">
-        <v>121</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
       <c r="S37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>320</v>
+      </c>
+      <c r="X37" t="s">
+        <v>321</v>
+      </c>
       <c r="Y37" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36630</v>
       </c>
-      <c r="B38" t="n">
-        <v>127625</v>
-      </c>
-      <c r="C38" t="s">
-        <v>361</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="J38" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="K38" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
-      </c>
-      <c r="N38" t="s">
-        <v>367</v>
-      </c>
-      <c r="O38" t="s">
-        <v>88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
       <c r="P38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R38" t="n">
         <v>4</v>
@@ -4256,137 +4345,137 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>328</v>
+      </c>
+      <c r="X38" t="s">
+        <v>329</v>
+      </c>
       <c r="Y38" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36630</v>
       </c>
-      <c r="B39" t="n">
-        <v>127626</v>
-      </c>
-      <c r="C39" t="s">
-        <v>368</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="J39" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="K39" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="L39" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="O39" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="P39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
         <v>3</v>
       </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>337</v>
+      </c>
+      <c r="X39" t="s">
+        <v>338</v>
+      </c>
       <c r="Y39" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36630</v>
       </c>
-      <c r="B40" t="n">
-        <v>127627</v>
-      </c>
-      <c r="C40" t="s">
-        <v>375</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="J40" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="K40" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="L40" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="O40" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S40" t="n">
         <v>1</v>
@@ -4401,139 +4490,137 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36630</v>
       </c>
-      <c r="B41" t="n">
-        <v>127628</v>
-      </c>
-      <c r="C41" t="s">
-        <v>382</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="J41" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="K41" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="L41" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="O41" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
       </c>
       <c r="Q41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S41" t="n">
         <v>4</v>
       </c>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>352</v>
+      </c>
+      <c r="X41" t="s">
+        <v>353</v>
+      </c>
       <c r="Y41" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36630</v>
       </c>
-      <c r="B42" t="n">
-        <v>127629</v>
-      </c>
-      <c r="C42" t="s">
-        <v>390</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="J42" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="K42" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="L42" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>396</v>
+        <v>360</v>
       </c>
       <c r="O42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4541,64 +4628,1154 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36630</v>
       </c>
-      <c r="B43" t="n">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>397</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>361</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>362</v>
+      </c>
+      <c r="J43" t="s">
+        <v>363</v>
+      </c>
+      <c r="K43" t="s">
+        <v>364</v>
+      </c>
+      <c r="L43" t="s">
+        <v>365</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>366</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>367</v>
+      </c>
+      <c r="X43" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36630</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>370</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>371</v>
+      </c>
+      <c r="J44" t="s">
+        <v>372</v>
+      </c>
+      <c r="K44" t="s">
+        <v>373</v>
+      </c>
+      <c r="L44" t="s">
+        <v>374</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>336</v>
+      </c>
+      <c r="O44" t="s">
+        <v>83</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>375</v>
+      </c>
+      <c r="X44" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36630</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>378</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>379</v>
+      </c>
+      <c r="J45" t="s">
+        <v>380</v>
+      </c>
+      <c r="K45" t="s">
+        <v>381</v>
+      </c>
+      <c r="L45" t="s">
+        <v>382</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>383</v>
+      </c>
+      <c r="X45" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36630</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
         <v>45</v>
       </c>
-      <c r="F43" t="s">
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>386</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>387</v>
+      </c>
+      <c r="J46" t="s">
+        <v>388</v>
+      </c>
+      <c r="K46" t="s">
+        <v>389</v>
+      </c>
+      <c r="L46" t="s">
+        <v>390</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>391</v>
+      </c>
+      <c r="O46" t="s">
+        <v>121</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>392</v>
+      </c>
+      <c r="X46" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36630</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>395</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>396</v>
+      </c>
+      <c r="J47" t="s">
+        <v>397</v>
+      </c>
+      <c r="K47" t="s">
         <v>398</v>
       </c>
-      <c r="G43" t="s">
-        <v>47</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="L47" t="s">
+        <v>399</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>400</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>401</v>
+      </c>
+      <c r="X47" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36630</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>404</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>405</v>
+      </c>
+      <c r="J48" t="s">
+        <v>406</v>
+      </c>
+      <c r="K48" t="s">
+        <v>407</v>
+      </c>
+      <c r="L48" t="s">
+        <v>408</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>409</v>
+      </c>
+      <c r="O48" t="s">
+        <v>91</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>410</v>
+      </c>
+      <c r="X48" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36630</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
         <v>48</v>
       </c>
-      <c r="I43" t="s">
-        <v>399</v>
-      </c>
-      <c r="J43" t="s">
-        <v>400</v>
-      </c>
-      <c r="K43" t="s">
-        <v>401</v>
-      </c>
-      <c r="L43" t="s">
-        <v>402</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
-      <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s">
-        <v>403</v>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>413</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>414</v>
+      </c>
+      <c r="J49" t="s">
+        <v>415</v>
+      </c>
+      <c r="K49" t="s">
+        <v>416</v>
+      </c>
+      <c r="L49" t="s">
+        <v>417</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>418</v>
+      </c>
+      <c r="X49" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36630</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>421</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>422</v>
+      </c>
+      <c r="J50" t="s">
+        <v>415</v>
+      </c>
+      <c r="K50" t="s">
+        <v>423</v>
+      </c>
+      <c r="L50" t="s">
+        <v>424</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>425</v>
+      </c>
+      <c r="O50" t="s">
+        <v>91</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>418</v>
+      </c>
+      <c r="X50" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36630</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>427</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>428</v>
+      </c>
+      <c r="J51" t="s">
+        <v>429</v>
+      </c>
+      <c r="K51" t="s">
+        <v>430</v>
+      </c>
+      <c r="L51" t="s">
+        <v>431</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>432</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>433</v>
+      </c>
+      <c r="X51" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36630</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>436</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>437</v>
+      </c>
+      <c r="J52" t="s">
+        <v>438</v>
+      </c>
+      <c r="K52" t="s">
+        <v>439</v>
+      </c>
+      <c r="L52" t="s">
+        <v>440</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>441</v>
+      </c>
+      <c r="O52" t="s">
+        <v>91</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36630</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>443</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>444</v>
+      </c>
+      <c r="J53" t="s">
+        <v>445</v>
+      </c>
+      <c r="K53" t="s">
+        <v>446</v>
+      </c>
+      <c r="L53" t="s">
+        <v>447</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>448</v>
+      </c>
+      <c r="O53" t="s">
+        <v>121</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36630</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>449</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>450</v>
+      </c>
+      <c r="J54" t="s">
+        <v>451</v>
+      </c>
+      <c r="K54" t="s">
+        <v>452</v>
+      </c>
+      <c r="L54" t="s">
+        <v>453</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>454</v>
+      </c>
+      <c r="O54" t="s">
+        <v>91</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36630</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>455</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>456</v>
+      </c>
+      <c r="J55" t="s">
+        <v>457</v>
+      </c>
+      <c r="K55" t="s">
+        <v>458</v>
+      </c>
+      <c r="L55" t="s">
+        <v>459</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>460</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36630</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>461</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>462</v>
+      </c>
+      <c r="J56" t="s">
+        <v>463</v>
+      </c>
+      <c r="K56" t="s">
+        <v>464</v>
+      </c>
+      <c r="L56" t="s">
+        <v>465</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>460</v>
+      </c>
+      <c r="O56" t="s">
+        <v>121</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36630</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>467</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>468</v>
+      </c>
+      <c r="J57" t="s">
+        <v>469</v>
+      </c>
+      <c r="K57" t="s">
+        <v>470</v>
+      </c>
+      <c r="L57" t="s">
+        <v>471</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>472</v>
+      </c>
+      <c r="O57" t="s">
+        <v>83</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36630</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>474</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>475</v>
+      </c>
+      <c r="J58" t="s">
+        <v>476</v>
+      </c>
+      <c r="K58" t="s">
+        <v>477</v>
+      </c>
+      <c r="L58" t="s">
+        <v>478</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>479</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36630</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>480</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>481</v>
+      </c>
+      <c r="J59" t="s">
+        <v>482</v>
+      </c>
+      <c r="K59" t="s">
+        <v>483</v>
+      </c>
+      <c r="L59" t="s">
+        <v>484</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
